--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A892BA62-E48D-4A90-8E53-ADEE49AC8E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19395" windowHeight="6810"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日付・時刻処理方式" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,18 @@
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -218,31 +230,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務日付は、運用上のイベントを基準として産出された日付のことである。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サンシュツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務日付の必要性を、典型的な日次バッチ処理を例として説明する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -400,11 +387,36 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>業務日付は、運用上のイベントを基準として算出された日付のことである。</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -798,15 +810,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -829,7 +844,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1025" name="Group 1"/>
+        <xdr:cNvPr id="1025" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
@@ -844,7 +865,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1044" name="AutoShape 20"/>
+          <xdr:cNvPr id="1044" name="AutoShape 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -871,7 +898,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1043" name="AutoShape 19"/>
+          <xdr:cNvPr id="1043" name="AutoShape 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -901,7 +934,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1042" name="AutoShape 18"/>
+          <xdr:cNvPr id="1042" name="AutoShape 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -931,7 +970,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1041" name="Text Box 17"/>
+          <xdr:cNvPr id="1041" name="Text Box 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -990,7 +1035,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1040" name="Text Box 16"/>
+          <xdr:cNvPr id="1040" name="Text Box 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1049,7 +1100,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1039" name="Text Box 15"/>
+          <xdr:cNvPr id="1039" name="Text Box 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1108,7 +1165,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1038" name="Text Box 14"/>
+          <xdr:cNvPr id="1038" name="Text Box 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1167,7 +1230,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1037" name="Text Box 13"/>
+          <xdr:cNvPr id="1037" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1228,7 +1297,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1036" name="Text Box 12"/>
+          <xdr:cNvPr id="1036" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1287,7 +1362,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1035" name="Text Box 11"/>
+          <xdr:cNvPr id="1035" name="Text Box 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1346,7 +1427,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1034" name="AutoShape 10"/>
+          <xdr:cNvPr id="1034" name="AutoShape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1471,7 +1558,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1033" name="Text Box 9"/>
+          <xdr:cNvPr id="1033" name="Text Box 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1530,7 +1623,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1032" name="AutoShape 8"/>
+          <xdr:cNvPr id="1032" name="AutoShape 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1655,7 +1754,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1031" name="Text Box 7"/>
+          <xdr:cNvPr id="1031" name="Text Box 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1714,7 +1819,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1030" name="AutoShape 6"/>
+          <xdr:cNvPr id="1030" name="AutoShape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1839,7 +1950,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1029" name="Line 5"/>
+          <xdr:cNvPr id="1029" name="Line 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1872,7 +1989,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1028" name="AutoShape 4"/>
+          <xdr:cNvPr id="1028" name="AutoShape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1900,7 +2023,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1027" name="Text Box 3"/>
+          <xdr:cNvPr id="1027" name="Text Box 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1981,7 +2110,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1026" name="Line 2"/>
+          <xdr:cNvPr id="1026" name="Line 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2030,7 +2165,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1075" name="Group 51"/>
+        <xdr:cNvPr id="1075" name="Group 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
@@ -2045,7 +2186,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1104" name="AutoShape 80"/>
+          <xdr:cNvPr id="1104" name="AutoShape 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -2072,7 +2219,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1103" name="AutoShape 79"/>
+          <xdr:cNvPr id="1103" name="AutoShape 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2102,7 +2255,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1102" name="AutoShape 78"/>
+          <xdr:cNvPr id="1102" name="AutoShape 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2132,7 +2291,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1101" name="AutoShape 77"/>
+          <xdr:cNvPr id="1101" name="AutoShape 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2162,7 +2327,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1100" name="AutoShape 76"/>
+          <xdr:cNvPr id="1100" name="AutoShape 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2192,7 +2363,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1099" name="Text Box 75"/>
+          <xdr:cNvPr id="1099" name="Text Box 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2253,7 +2430,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1098" name="Text Box 74"/>
+          <xdr:cNvPr id="1098" name="Text Box 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2314,7 +2497,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1097" name="Text Box 73"/>
+          <xdr:cNvPr id="1097" name="Text Box 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2373,7 +2562,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1096" name="Text Box 72"/>
+          <xdr:cNvPr id="1096" name="Text Box 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2432,7 +2627,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1095" name="Text Box 71"/>
+          <xdr:cNvPr id="1095" name="Text Box 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2491,7 +2692,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1094" name="Text Box 70"/>
+          <xdr:cNvPr id="1094" name="Text Box 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2550,7 +2757,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1093" name="Text Box 69"/>
+          <xdr:cNvPr id="1093" name="Text Box 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2609,7 +2822,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1092" name="Text Box 68"/>
+          <xdr:cNvPr id="1092" name="Text Box 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2668,7 +2887,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1091" name="Text Box 67"/>
+          <xdr:cNvPr id="1091" name="Text Box 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2749,7 +2974,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1090" name="Text Box 66"/>
+          <xdr:cNvPr id="1090" name="Text Box 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2808,7 +3039,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1089" name="Text Box 65"/>
+          <xdr:cNvPr id="1089" name="Text Box 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2867,7 +3104,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1088" name="AutoShape 64"/>
+          <xdr:cNvPr id="1088" name="AutoShape 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2992,7 +3235,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1087" name="Text Box 63"/>
+          <xdr:cNvPr id="1087" name="Text Box 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3053,7 +3302,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1086" name="AutoShape 62"/>
+          <xdr:cNvPr id="1086" name="AutoShape 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3178,7 +3433,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1085" name="Text Box 61"/>
+          <xdr:cNvPr id="1085" name="Text Box 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3239,7 +3500,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1084" name="AutoShape 60"/>
+          <xdr:cNvPr id="1084" name="AutoShape 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3269,7 +3536,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1083" name="AutoShape 59"/>
+          <xdr:cNvPr id="1083" name="AutoShape 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3299,7 +3572,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1082" name="Text Box 58"/>
+          <xdr:cNvPr id="1082" name="Text Box 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3360,7 +3639,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1081" name="Text Box 57"/>
+          <xdr:cNvPr id="1081" name="Text Box 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3419,7 +3704,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1080" name="Text Box 56"/>
+          <xdr:cNvPr id="1080" name="Text Box 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3478,7 +3769,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1079" name="Line 55"/>
+          <xdr:cNvPr id="1079" name="Line 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3511,7 +3808,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1078" name="AutoShape 54"/>
+          <xdr:cNvPr id="1078" name="AutoShape 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3636,7 +3939,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1077" name="Line 53"/>
+          <xdr:cNvPr id="1077" name="Line 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3669,7 +3978,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1076" name="Line 52"/>
+          <xdr:cNvPr id="1076" name="Line 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3707,7 +4022,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3749,7 +4064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3782,9 +4097,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3817,6 +4149,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3992,7 +4341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4009,7 +4358,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4030,7 +4379,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S1" s="43"/>
       <c r="T1" s="43"/>
@@ -4039,7 +4388,7 @@
       <c r="W1" s="43"/>
       <c r="X1" s="44"/>
       <c r="Y1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="45"/>
@@ -4071,7 +4420,7 @@
       <c r="N2" s="49"/>
       <c r="O2" s="50"/>
       <c r="P2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="51" t="s">
@@ -4084,7 +4433,7 @@
       <c r="W2" s="52"/>
       <c r="X2" s="53"/>
       <c r="Y2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z2" s="3"/>
       <c r="AA2" s="45"/>
@@ -4125,7 +4474,7 @@
       <c r="W3" s="55"/>
       <c r="X3" s="56"/>
       <c r="Y3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z3" s="14"/>
       <c r="AA3" s="45"/>
@@ -4491,7 +4840,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="33"/>
       <c r="P23" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="32"/>
       <c r="R23" s="32"/>
@@ -4553,13 +4902,13 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
       <c r="L25" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="33"/>
       <c r="P25" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
@@ -4629,7 +4978,7 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4659,7 +5008,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="27"/>
       <c r="F33" s="4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4673,49 +5022,49 @@
         <v>7.9.2.2.</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="15"/>
       <c r="E36" s="27"/>
       <c r="F36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="15"/>
       <c r="E37" s="27"/>
       <c r="F37" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="15"/>
       <c r="E38" s="27"/>
       <c r="F38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="15"/>
       <c r="E39" s="27"/>
       <c r="F39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="15"/>
       <c r="E40" s="27"/>
       <c r="F40" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="15"/>
       <c r="E41" s="27"/>
       <c r="F41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4791,35 +5140,35 @@
       <c r="D59" s="15"/>
       <c r="E59" s="27"/>
       <c r="F59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
       <c r="E60" s="27"/>
       <c r="F60" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
       <c r="E61" s="27"/>
       <c r="F61" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="15"/>
       <c r="E62" s="27"/>
       <c r="F62" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="15"/>
       <c r="E63" s="27"/>
       <c r="F63" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4924,13 +5273,13 @@
     <row r="87" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="15"/>
       <c r="F87" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
       <c r="F88" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A892BA62-E48D-4A90-8E53-ADEE49AC8E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC05A51-72B0-4A99-AB03-7325DE49F98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,11 +12,11 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc292985312" localSheetId="0">日付・時刻処理方式!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">日付・時刻処理方式!$A$1:$AI$96</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">日付・時刻処理方式!$A$1:$AI$144</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$157</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$157</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$157</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -60,36 +60,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>方針</t>
-  </si>
-  <si>
-    <t>概要</t>
-  </si>
-  <si>
-    <t>上記の特徴を踏まえ、本システムでの選択基準を以下に示す。</t>
-  </si>
-  <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロード方式</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する</t>
-  </si>
-  <si>
     <t>基本概念</t>
   </si>
   <si>
     <t>業務日付</t>
-  </si>
-  <si>
-    <t>システム日時</t>
   </si>
   <si>
     <t>日付・時刻処理方式</t>
@@ -108,128 +82,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日付の概念</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>システム日時</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務日付</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付の概念には、以下の概念がある。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイネン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付の基本概念</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務日付とシステム日時の使いわけ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務日付の取得方法</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>現在の日付および時刻のこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>運用上のイベントを基準として算出された日付のこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日中にオンライン処理から受け付けた処理要求を一括処理しているバッチ処理の場合、当該日の夜間バッチが</t>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日中のオンライン処理と夜間バッチが同じ日付で処理されることが保証される。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全て終了した後にバッチ業務日付を更新することで、夜間バッチが0:00を超えた後で起動した場合でも、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchで提供されている当該機能(SystemTimeUtil) を使用して、現在日時を取得する。</t>
-    <rPh sb="36" eb="38">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付の概要</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務日付の必要性を、典型的な日次バッチ処理を例として説明する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -267,23 +131,6 @@
   </si>
   <si>
     <t>バッチ業務日付を導入することにより、夜間バッチが0:00を超え起動したとしても、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日中のオンライン処理と夜間バッチが同じ日付で処理されることが保証される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>現在日時を取得するため。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -300,48 +147,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム日時は実時間を扱う場合に使用し、業務日付は業務アプリケーションにおいて日付を扱う場合に使用する。</t>
-    <rPh sb="4" eb="6">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ジツジカン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付取得APIを呼ぶ度に逐一業務日付テーブルにアクセスして取得する。</t>
-  </si>
-  <si>
-    <t>業務日付区分を主キーとして、オンライン業務日付をDB上のテーブルに格納する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -360,22 +165,6 @@
   <si>
     <t>確認</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>業務要件に応じて使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -388,27 +177,658 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務日付は、運用上のイベントを基準として算出された日付のことである。</t>
+    <t>本章では、本システムにおける日付・時刻の概念と、それらを取得する際の処理方式について述べる。</t>
+  </si>
+  <si>
+    <t>業務日付とシステム日時の基本概念</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日時とは、本システムが稼動するOSが返す現在の日付および時刻であり、世間一般に認識される日付と原則的には同じ概念である。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一方、業務日付とは、オンライン開局などの運用上のイベントを基準として算出された日付のことを指し、通常の日付の概念とは必ずしも</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一致しない。また、業務日付には、時刻の概念は含まれない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムにおける日付の概念は、システム日時と業務日付の２種類に分かれる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（例えば、”4月1日 3:00” を “3月31日 27:00” と読み替えることにより、業務「日時」をサポートする考え方もあるが、本システムでは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのような対応は行わない）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日時は、データの更新日時など、実時間そのものを扱う場合に使用する。</t>
+  </si>
+  <si>
+    <t>業務日付には時刻の概念が含まれないため、本システムにおいて日時を扱う場合は常にシステム日時を利用することになる。</t>
+  </si>
+  <si>
+    <t>一方、業務アプリケーションにおいて日付を扱う場合は、原則として必ず業務日付を使用する。</t>
+  </si>
+  <si>
+    <t>ログインアカウントの有効期限を例に考えると、有効期限が日時で設定されている場合は、システム時間を使用して判定を行い、有効期限が</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付で設定されている場合は業務日付（オンライン業務日付）で判定を行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これにより、各業務処理において、実行時刻を意識して業務日付を算出するような処理を個別に実装する必要がなくなる。</t>
+  </si>
+  <si>
+    <t>業務日付の値は、その用途ごとに、業務日付区分 と呼ばれるコードを割り振り、個別に定義する。</t>
+  </si>
+  <si>
+    <t>各業務日付は、この業務日付区分を主キーとしてDB上のテーブルに格納する。</t>
+  </si>
+  <si>
+    <t>以下は本システムにおける業務日付区分の定義である。</t>
+  </si>
+  <si>
+    <t>本システムでは、システム日時を取得するAPIとは別に、業務日付を取得するAPIを提供する。</t>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分</t>
     <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンライン業務日付</t>
+    <rPh sb="5" eb="7">
       <t>ギョウム</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="7" eb="9">
       <t>ヒヅケ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ業務日付</t>
+    <rPh sb="3" eb="7">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新タイミング</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンライン開局前</t>
+    <rPh sb="5" eb="8">
+      <t>カイキョクマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当日の全バッチ処理終了後</t>
+    <rPh sb="0" eb="3">
+      <t>ガイトウビ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、バッチ処理では、起動パラメータに業務日付を指定することができる。</t>
+  </si>
+  <si>
+    <t>これは、リラン・リスタート制御のように、以前に受けたリクエストを過去日付で再実行するような場合に使用する。</t>
+  </si>
+  <si>
+    <t>業務日付の取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面オンライン処理方式、リアルタイムオンライン処理方式</t>
+  </si>
+  <si>
+    <t>バッチ処理方式</t>
+  </si>
+  <si>
+    <t>ディレードオンライン処理方式</t>
+  </si>
+  <si>
+    <t>（これ以外にも業務毎に業務日付を定義する場合がある）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面オンライン処理方式用の業務日付区分の定義と、業務日付の更新</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
     </rPh>
     <rPh sb="15" eb="17">
-      <t>キジュン</t>
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面オンライン処理方式用の業務日付の変更は業務閉塞中に行うことを前提としているため、業務の開閉局スケジュールを整理した上で</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付テーブルの業務日付区分を定義する。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付更新処理は、各業務日付区分の開局処理の先行ジョブとして日次実行する。</t>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日時とは、各アプリケーションのJVMが稼動するサーバータイマーを基準とした日付と時刻である。</t>
+  </si>
+  <si>
+    <t>（各サーバの時間はNTPサーバ等を通じて同期されているものとする。）</t>
+  </si>
+  <si>
+    <t>タイマーの時差を除けば、この日時は世界標準時を基準としたローカルタイム(UTC:+9:00) に一致する。</t>
+  </si>
+  <si>
+    <t>システム日時の取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、システム日時の取得にJDKが提供するAPI（System.currentTimeMills()、LocalDate.now()など）を使用することを禁止する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代わりに、Nablarchが提供するシステム日時取得用のAPI(SystemTimeUtil)を使用することとする。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、業務日付を取得する方法としてNablarchが提供する業務日付取得機能(BusinessDateUtil)を使用する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>シュトクキノウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、後述するディレードオンライン処理方式では、処理要求毎に保持した業務日付を扱うため、共通機能を用意する。</t>
+    <rPh sb="4" eb="6">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
     </rPh>
     <rPh sb="20" eb="22">
-      <t>サンシュツ</t>
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="25" eb="30">
+      <t>ショリヨウキュウゴト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下で、各処理方式毎に業務日付の取得方法を説明する。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの業務日付取得機能を使い、業務日付を取得する。</t>
+    <rPh sb="9" eb="13">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面オンラインは基本的にJVMを停止しないので、キャッシュは行わず都度業務日付テーブルにアクセスする。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ処理方式ではバッチ実行基盤によってバッチ起動時に業務日付が取得され、キャッシュされる。</t>
+    <rPh sb="12" eb="16">
+      <t>ジッコウキバン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの業務日付取得機能は、このキャッシュされた日付を返すようになっている。</t>
+    <rPh sb="9" eb="13">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シュトクキノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの業務日付取得機能は、システムプロパティで業務日付を指定する機能を提供している。</t>
+    <rPh sb="9" eb="11">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付を指定してバッチを実行する場合は、この機能を利用して業務日付を指定する。</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付は、処理要求毎に紐づく形で保存する。</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ショリヨウキュウゴト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理要求毎の業務日付の保存と取得は、共通機能を作成して実現する。</t>
+    <rPh sb="0" eb="5">
+      <t>ショリヨウキュウゴト</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>キョウツウキノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリケーションが処理要求毎の業務日付にアクセスする際は、この共通機能を利用すること。</t>
+    <rPh sb="9" eb="14">
+      <t>ショリヨウキュウゴト</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>キョウツウキノウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディレードオンライン処理方式では、処理要求毎に処理要求登録時の業務日付を紐づけて使用する。</t>
+    <rPh sb="17" eb="21">
+      <t>ショリヨウキュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ショリヨウキュウ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理要求登録時の業務日付は、基本はNablarchの業務日付取得機能を使って取得した日付を使用する。</t>
+    <rPh sb="0" eb="7">
+      <t>ショリヨウキュウトウロクジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、明示的に業務日付が指定された場合は、その日付を使用する。</t>
+    <rPh sb="4" eb="7">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理要求実行時は、処理要求毎に保存された業務日付を取得して使用する。</t>
+    <rPh sb="0" eb="4">
+      <t>ショリヨウキュウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ショリヨウキュウゴト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ギョウムヒヅケ</t>
     </rPh>
     <rPh sb="25" eb="27">
-      <t>ヒヅケ</t>
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -420,7 +840,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +882,14 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -478,7 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDAEEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +1060,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,36 +1109,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -724,21 +1122,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -807,6 +1190,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -816,6 +1229,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDAEEF3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -833,21 +1251,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1025" name="Group 1">
+        <xdr:cNvPr id="52" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FA107A-CD32-4966-92EE-80D051CA480C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +1275,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1381125" y="6115050"/>
+          <a:off x="1381125" y="7543800"/>
           <a:ext cx="5695950" cy="2066925"/>
           <a:chOff x="1867" y="1745"/>
           <a:chExt cx="8976" cy="3258"/>
@@ -865,10 +1283,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1044" name="AutoShape 20">
+          <xdr:cNvPr id="53" name="AutoShape 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EED743-3076-4097-9FBB-D1457D219B99}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -898,10 +1316,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1043" name="AutoShape 19">
+          <xdr:cNvPr id="54" name="AutoShape 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D345F9-CE5B-4D16-9971-E4329925A559}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -934,10 +1352,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1042" name="AutoShape 18">
+          <xdr:cNvPr id="55" name="AutoShape 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA560C3-750B-4792-9A65-539EC45379BF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -970,10 +1388,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1041" name="Text Box 17">
+          <xdr:cNvPr id="56" name="Text Box 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657ACB9D-F7B6-4B1C-8EE3-C0161D004C12}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1035,10 +1453,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1040" name="Text Box 16">
+          <xdr:cNvPr id="57" name="Text Box 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC13AF0-A72A-4ED9-9B0F-0ABEAFF8ACE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1100,10 +1518,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1039" name="Text Box 15">
+          <xdr:cNvPr id="58" name="Text Box 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F4D62D-7709-48E1-B3AC-C6AB49E95D3E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1165,10 +1583,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1038" name="Text Box 14">
+          <xdr:cNvPr id="59" name="Text Box 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CCA2AB-7F82-4090-A8B8-81252DE5C69C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1230,10 +1648,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1037" name="Text Box 13">
+          <xdr:cNvPr id="60" name="Text Box 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5496D7-CEA9-439E-B4DE-FDF17D299A68}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1297,10 +1715,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1036" name="Text Box 12">
+          <xdr:cNvPr id="61" name="Text Box 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A4CE00-392D-431F-B10C-D242D61FF685}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1362,10 +1780,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1035" name="Text Box 11">
+          <xdr:cNvPr id="62" name="Text Box 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4735A1A1-4C7D-4972-B91B-B5FD040796C3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1427,10 +1845,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1034" name="AutoShape 10">
+          <xdr:cNvPr id="63" name="AutoShape 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423D7948-48E4-4BE2-9858-B41BB4E99E72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1558,10 +1976,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1033" name="Text Box 9">
+          <xdr:cNvPr id="64" name="Text Box 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68DDA66-11AE-46F2-AEB8-310F994C9DC5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1623,10 +2041,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1032" name="AutoShape 8">
+          <xdr:cNvPr id="65" name="AutoShape 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9205CB9-9444-4598-B21E-957D4BA27ADC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1754,10 +2172,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1031" name="Text Box 7">
+          <xdr:cNvPr id="66" name="Text Box 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE567E49-9BF1-47E6-8794-5EA7D2282E0A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1819,10 +2237,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1030" name="AutoShape 6">
+          <xdr:cNvPr id="67" name="AutoShape 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512AFEEA-0B94-42F7-AB65-F31AB9629830}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1950,10 +2368,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1029" name="Line 5">
+          <xdr:cNvPr id="68" name="Line 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C663066B-F42A-42D6-856A-4857FDE8F0C3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1989,10 +2407,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1028" name="AutoShape 4">
+          <xdr:cNvPr id="69" name="AutoShape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AFC383-9F2A-4F21-B5D8-B9124228B00F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2023,10 +2441,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1027" name="Text Box 3">
+          <xdr:cNvPr id="70" name="Text Box 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAB6BFA-6D38-4B5A-A7CD-ADAD183191F6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2110,10 +2528,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1026" name="Line 2">
+          <xdr:cNvPr id="71" name="Line 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E745F5DA-C5E3-49D9-B7A3-A5C8875E36BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2154,21 +2572,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1075" name="Group 51">
+        <xdr:cNvPr id="72" name="Group 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E98ECE-7291-4656-ADC1-2CC1467E1A96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2596,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1285875" y="9267825"/>
+          <a:off x="1285875" y="10696575"/>
           <a:ext cx="5857875" cy="2990850"/>
           <a:chOff x="1867" y="3796"/>
           <a:chExt cx="9218" cy="5421"/>
@@ -2186,10 +2604,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1104" name="AutoShape 80">
+          <xdr:cNvPr id="73" name="AutoShape 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF50C579-06DD-433F-9092-ACE74A08FE78}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2219,10 +2637,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1103" name="AutoShape 79">
+          <xdr:cNvPr id="74" name="AutoShape 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34075899-986B-4C37-8FAC-BBB9D3186455}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2255,10 +2673,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1102" name="AutoShape 78">
+          <xdr:cNvPr id="75" name="AutoShape 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF225BD2-E21E-4E8A-9A23-96C82C605710}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2291,10 +2709,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1101" name="AutoShape 77">
+          <xdr:cNvPr id="76" name="AutoShape 77">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3580F6-F344-47FD-8B72-BA69DCFA80FD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2327,10 +2745,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1100" name="AutoShape 76">
+          <xdr:cNvPr id="77" name="AutoShape 76">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8037463-FCEE-43C0-BF2F-7B495C43F136}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2363,10 +2781,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1099" name="Text Box 75">
+          <xdr:cNvPr id="78" name="Text Box 75">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8171F732-9F5C-49AA-BE11-3C8F29C82F2D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2430,10 +2848,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1098" name="Text Box 74">
+          <xdr:cNvPr id="79" name="Text Box 74">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BDB252-824E-4B6C-9042-9CA13440EEF1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2497,10 +2915,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1097" name="Text Box 73">
+          <xdr:cNvPr id="80" name="Text Box 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4B8214-7209-4FC2-8A37-AA2180746DCC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2562,10 +2980,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1096" name="Text Box 72">
+          <xdr:cNvPr id="81" name="Text Box 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F464F8FD-EB55-4B96-82C9-4E3785D6E1D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2627,10 +3045,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1095" name="Text Box 71">
+          <xdr:cNvPr id="82" name="Text Box 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A25BA97-C43D-403C-84F6-F97C1D739ABB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2692,10 +3110,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1094" name="Text Box 70">
+          <xdr:cNvPr id="83" name="Text Box 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB3835E-4A37-462A-933C-B574853A72A3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2757,10 +3175,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1093" name="Text Box 69">
+          <xdr:cNvPr id="84" name="Text Box 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC19198-EBE5-4903-8B9E-6813CFE5FB90}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2822,10 +3240,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1092" name="Text Box 68">
+          <xdr:cNvPr id="85" name="Text Box 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655164B6-A43C-4F54-9126-698A17C247C2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2887,10 +3305,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1091" name="Text Box 67">
+          <xdr:cNvPr id="86" name="Text Box 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADB36F2-C346-4338-A69A-9684F691D3A4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2974,10 +3392,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1090" name="Text Box 66">
+          <xdr:cNvPr id="87" name="Text Box 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D652ED6D-BA7A-482C-B111-138D710877AE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3039,10 +3457,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1089" name="Text Box 65">
+          <xdr:cNvPr id="88" name="Text Box 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A44AAE-67A4-4CC2-9C31-A2F500F24BA1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3104,10 +3522,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1088" name="AutoShape 64">
+          <xdr:cNvPr id="89" name="AutoShape 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CBD92C-2976-4DD8-A36E-B3AA36E299B7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3235,10 +3653,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1087" name="Text Box 63">
+          <xdr:cNvPr id="90" name="Text Box 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60A0936-D94F-4F5B-BE3F-4C55496E4049}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3302,10 +3720,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1086" name="AutoShape 62">
+          <xdr:cNvPr id="91" name="AutoShape 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4A6038-F0BB-4273-A3FE-CC8A090FBDA6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3433,10 +3851,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1085" name="Text Box 61">
+          <xdr:cNvPr id="92" name="Text Box 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DF0A48-AC62-4D07-A668-735D59F8C0AC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3500,10 +3918,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1084" name="AutoShape 60">
+          <xdr:cNvPr id="93" name="AutoShape 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526A1AAC-1E21-418E-A04D-4E2FEA215E00}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3536,10 +3954,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1083" name="AutoShape 59">
+          <xdr:cNvPr id="94" name="AutoShape 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6A3B58-ECB7-497C-9138-B9DADB068463}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3572,10 +3990,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1082" name="Text Box 58">
+          <xdr:cNvPr id="95" name="Text Box 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF9DD30-E252-40A4-821B-0D3930A80C10}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3639,10 +4057,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1081" name="Text Box 57">
+          <xdr:cNvPr id="96" name="Text Box 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E389BAD5-26DC-456E-A8B2-FA18FF5B95A0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3704,10 +4122,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1080" name="Text Box 56">
+          <xdr:cNvPr id="97" name="Text Box 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092B69E5-9F28-4E78-866D-D794EC68F29C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3769,10 +4187,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1079" name="Line 55">
+          <xdr:cNvPr id="98" name="Line 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D51EED5-62B1-48A8-8706-3EADEF60034D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3808,10 +4226,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1078" name="AutoShape 54">
+          <xdr:cNvPr id="99" name="AutoShape 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404E760F-CD6C-462E-9898-38E60597871F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3939,10 +4357,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1077" name="Line 53">
+          <xdr:cNvPr id="100" name="Line 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA19409E-D7A4-4674-82C2-E8E7A17E6640}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3978,10 +4396,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1076" name="Line 52">
+          <xdr:cNvPr id="101" name="Line 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943EB6AC-9F32-4CFB-BAA7-A1F4B712A188}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4345,7 +4763,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI541"/>
+  <dimension ref="A1:AI589"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4358,48 +4776,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="44"/>
+      <c r="R1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="29"/>
       <c r="Y1" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="23"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4408,43 +4826,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="23"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -4453,39 +4871,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="41"/>
       <c r="Y3" s="12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="38"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="23"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4503,919 +4921,856 @@
         <v>7.9.</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="15" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="15" t="str">
         <f>$C$7&amp;"1."</f>
         <v>7.9.1.</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>7.9.1.1.</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="str">
+        <f>$D$11&amp;"1."</f>
+        <v>7.9.1.1.</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="15"/>
-      <c r="F14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="21"/>
+      <c r="D14" s="15"/>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="24"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="15"/>
-      <c r="F16" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="21"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="15"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="21"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="15"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="15"/>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="15"/>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="15"/>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="15" t="str">
+        <f>$D$11&amp;"2."</f>
+        <v>7.9.1.2.</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="15"/>
       <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="18"/>
-    </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="15"/>
+      <c r="F22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="15"/>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="15"/>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="15"/>
+      <c r="F25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="33"/>
-    </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="35"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="33"/>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="35"/>
-    </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="str">
-        <f>$D$9&amp;"2."</f>
-        <v>7.9.1.2.</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="15" t="str">
+    </row>
+    <row r="28" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.9.2.</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="15"/>
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="15"/>
+      <c r="E30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="15"/>
+      <c r="E32" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="15"/>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="15"/>
+      <c r="E35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="15"/>
+      <c r="E36" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="15"/>
+      <c r="E38" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="48"/>
+    </row>
+    <row r="39" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="15"/>
+      <c r="E39" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="44"/>
+      <c r="G39" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="45"/>
+    </row>
+    <row r="40" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="15"/>
+      <c r="E40" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="44"/>
+      <c r="G40" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="45"/>
+    </row>
+    <row r="41" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="15"/>
+      <c r="E42" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="15"/>
+      <c r="E43" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="15"/>
+      <c r="E45" s="17" t="str">
+        <f>$D$28&amp;"1."</f>
+        <v>7.9.2.1.</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="15"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="15"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="15"/>
-      <c r="E32" s="27" t="str">
-        <f>$D$31&amp;"1."</f>
-        <v>7.9.2.1.</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="15"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="15"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="15"/>
-      <c r="E35" s="27" t="str">
-        <f>$D$31&amp;"2."</f>
-        <v>7.9.2.2.</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="15"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="15"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="15"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="15"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="15"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="15"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="15"/>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="15"/>
-      <c r="E43" s="27"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="15"/>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="15"/>
-      <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="15"/>
-      <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="15"/>
-      <c r="E47" s="27"/>
-    </row>
-    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="15"/>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="17"/>
+      <c r="F48" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="15"/>
-      <c r="E49" s="27"/>
-    </row>
-    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="17"/>
+      <c r="F49" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="15"/>
-      <c r="E50" s="27"/>
-    </row>
-    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="17"/>
+      <c r="F50" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="15"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="15"/>
-      <c r="E52" s="27"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="15"/>
-      <c r="E53" s="27"/>
+      <c r="E53" s="17"/>
+      <c r="F53"/>
     </row>
     <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="15"/>
-      <c r="E54" s="27"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="15"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="15"/>
-      <c r="E56" s="27"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="15"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="15"/>
-      <c r="E58" s="27"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="15"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="15"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="15"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E63" s="17"/>
     </row>
     <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="15"/>
-      <c r="E64" s="27"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="15"/>
-      <c r="E65" s="27"/>
+      <c r="E65" s="17"/>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="15"/>
-      <c r="E66" s="27"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="15"/>
-      <c r="E67" s="27"/>
+      <c r="E67" s="17"/>
     </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15"/>
-      <c r="E68" s="27"/>
+      <c r="E68" s="17"/>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="15"/>
-      <c r="E69" s="27"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D70" s="15"/>
-      <c r="E70" s="27"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="15"/>
-      <c r="E71" s="27"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D72" s="15"/>
-      <c r="E72" s="27"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="15"/>
-      <c r="E73" s="27"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D74" s="15"/>
-      <c r="E74" s="27"/>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="15"/>
-      <c r="E75" s="27"/>
+      <c r="E75" s="17"/>
     </row>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="15"/>
-      <c r="E76" s="27"/>
-      <c r="F76"/>
+      <c r="E76" s="17"/>
     </row>
     <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="15"/>
-      <c r="E77" s="27"/>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
-      <c r="E78" s="27"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="15"/>
-      <c r="E79" s="27"/>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="15"/>
-      <c r="E80" s="27"/>
+      <c r="E80" s="17"/>
     </row>
     <row r="81" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="15"/>
-      <c r="E81" s="27"/>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="15"/>
-      <c r="E82" s="27"/>
+      <c r="E82" s="17"/>
     </row>
     <row r="83" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="15"/>
-      <c r="E83" s="27"/>
+      <c r="E83" s="17"/>
     </row>
     <row r="84" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="15"/>
-      <c r="E84" s="27"/>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="15"/>
-      <c r="E85" s="27"/>
+      <c r="E85" s="17"/>
     </row>
     <row r="86" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="15"/>
-      <c r="E86" s="27" t="str">
-        <f>$D$31&amp;"3."</f>
-        <v>7.9.2.3.</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E86" s="17"/>
+      <c r="F86"/>
     </row>
     <row r="87" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="15"/>
-      <c r="F87" s="31" t="s">
-        <v>45</v>
-      </c>
+      <c r="E87" s="17"/>
     </row>
     <row r="88" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="15"/>
-      <c r="F88" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="17"/>
     </row>
     <row r="89" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="17"/>
     </row>
     <row r="90" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="17"/>
     </row>
     <row r="91" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="27" t="str">
+      <c r="D91" s="15"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="15"/>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="15"/>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="15"/>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="15"/>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="15"/>
+      <c r="E96" s="15" t="str">
+        <f>$D$28&amp;"2."</f>
+        <v>7.9.2.2.</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="G103" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="G104" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+    </row>
+    <row r="106" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="G107" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+    </row>
+    <row r="109" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="G109" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="G110" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="G111" s="49"/>
+    </row>
+    <row r="112" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="G112" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="G113" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+    </row>
+    <row r="115" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="G116" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+    </row>
+    <row r="118" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="G118" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="G119" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="G120" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+    </row>
+    <row r="122" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="G122" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+    </row>
+    <row r="124" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="G124" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="G125" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+    </row>
+    <row r="127" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+    </row>
+    <row r="128" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D128" s="15"/>
+      <c r="E128" s="15" t="str">
+        <f>$D$28&amp;"3."</f>
+        <v>7.9.2.3.</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+    </row>
+    <row r="133" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+    </row>
+    <row r="134" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D134" s="52" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.9.3.</v>
       </c>
-      <c r="E91" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D92" s="28"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D93" s="15"/>
-      <c r="E93" s="27"/>
-    </row>
-    <row r="94" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="15"/>
-    </row>
-    <row r="95" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D95" s="15"/>
-    </row>
-    <row r="96" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D96" s="15"/>
-    </row>
-    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D97" s="15"/>
-    </row>
-    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E101" s="15"/>
-    </row>
-    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D102" s="27"/>
-      <c r="E102" s="26"/>
-    </row>
-    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D103" s="28"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="29"/>
-    </row>
-    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D104" s="28"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="29"/>
-    </row>
-    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D105" s="28"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="29"/>
-    </row>
-    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="28"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="29"/>
-    </row>
-    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E107" s="15"/>
-    </row>
-    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E108" s="15"/>
-    </row>
-    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E109" s="15"/>
-    </row>
-    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E134" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D135" s="50"/>
+      <c r="E135" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D136" s="50"/>
+      <c r="E136" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="50"/>
+      <c r="E137" s="50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D138" s="50"/>
+      <c r="E138" s="50"/>
+    </row>
+    <row r="139" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="50"/>
+      <c r="E139" s="15" t="str">
+        <f>$D$134&amp;"1."</f>
+        <v>7.9.3.1.</v>
+      </c>
+      <c r="F139" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D140" s="50"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D141" s="50"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D142" s="50"/>
+      <c r="E142" s="15"/>
+    </row>
+    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D143" s="15"/>
+    </row>
+    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D144" s="15"/>
+    </row>
+    <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D145" s="15"/>
+    </row>
+    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E146" s="15"/>
+    </row>
+    <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E147" s="15"/>
+    </row>
+    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E148" s="15"/>
+    </row>
+    <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E149" s="15"/>
+    </row>
+    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D150" s="17"/>
+      <c r="E150" s="16"/>
+    </row>
+    <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="18"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="19"/>
+    </row>
+    <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D152" s="18"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="19"/>
+    </row>
+    <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D153" s="18"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="19"/>
+    </row>
+    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D154" s="18"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="19"/>
+    </row>
+    <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E155" s="15"/>
+    </row>
+    <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E156" s="15"/>
+    </row>
+    <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E157" s="15"/>
+    </row>
+    <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="162" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5797,6 +6152,54 @@
     <row r="539" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="540" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="541" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5814,9 +6217,11 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="30" max="34" man="1"/>
-    <brk id="58" max="34" man="1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="44" max="34" man="1"/>
+    <brk id="68" max="34" man="1"/>
+    <brk id="94" max="34" man="1"/>
+    <brk id="132" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC05A51-72B0-4A99-AB03-7325DE49F98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6358A0D6-6598-4E36-9445-09084CE09EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,11 +12,11 @@
   </sheets>
   <definedNames>
     <definedName name="_Toc292985312" localSheetId="0">日付・時刻処理方式!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">日付・時刻処理方式!$A$1:$AI$144</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$157</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$157</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$157</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$157</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">日付・時刻処理方式!$A$1:$AI$130</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -323,13 +323,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面オンライン処理方式、リアルタイムオンライン処理方式</t>
-  </si>
-  <si>
     <t>バッチ処理方式</t>
-  </si>
-  <si>
-    <t>ディレードオンライン処理方式</t>
   </si>
   <si>
     <t>（これ以外にも業務毎に業務日付を定義する場合がある）</t>
@@ -464,40 +458,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ただし、後述するディレードオンライン処理方式では、処理要求毎に保持した業務日付を扱うため、共通機能を用意する。</t>
-    <rPh sb="4" eb="6">
-      <t>コウジュツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="25" eb="30">
-      <t>ショリヨウキュウゴト</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>ギョウムヒヅケ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>以下で、各処理方式毎に業務日付の取得方法を説明する。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -664,172 +624,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務日付は、処理要求毎に紐づく形で保存する。</t>
-    <rPh sb="0" eb="4">
-      <t>ギョウムヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="11">
-      <t>ショリヨウキュウゴト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理要求毎の業務日付の保存と取得は、共通機能を作成して実現する。</t>
-    <rPh sb="0" eb="5">
-      <t>ショリヨウキュウゴト</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ギョウムヒヅケ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>キョウツウキノウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アプリケーションが処理要求毎の業務日付にアクセスする際は、この共通機能を利用すること。</t>
-    <rPh sb="9" eb="14">
-      <t>ショリヨウキュウゴト</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ギョウムヒヅケ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="31" eb="35">
-      <t>キョウツウキノウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ディレードオンライン処理方式では、処理要求毎に処理要求登録時の業務日付を紐づけて使用する。</t>
-    <rPh sb="17" eb="21">
-      <t>ショリヨウキュウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>ショリヨウキュウ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>トウロクジ</t>
-    </rPh>
-    <rPh sb="31" eb="35">
-      <t>ギョウムヒヅケ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理要求登録時の業務日付は、基本はNablarchの業務日付取得機能を使って取得した日付を使用する。</t>
-    <rPh sb="0" eb="7">
-      <t>ショリヨウキュウトウロクジ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ギョウムヒヅケ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>ギョウムヒヅケ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ただし、明示的に業務日付が指定された場合は、その日付を使用する。</t>
-    <rPh sb="4" eb="7">
-      <t>メイジテキ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ギョウムヒヅケ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理要求実行時は、処理要求毎に保存された業務日付を取得して使用する。</t>
-    <rPh sb="0" eb="4">
-      <t>ショリヨウキュウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジッコウジ</t>
-    </rPh>
-    <rPh sb="9" eb="14">
-      <t>ショリヨウキュウゴト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ギョウムヒヅケ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
-    </rPh>
+    <t>画面オンライン処理方式</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1124,6 +919,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1189,36 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4763,7 +4558,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI589"/>
+  <dimension ref="A1:AI575"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4771,7 +4566,13 @@
   <cols>
     <col min="1" max="18" width="3.625" style="4"/>
     <col min="19" max="19" width="3.625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="3.625" style="4"/>
+    <col min="20" max="39" width="3.625" style="4"/>
+    <col min="40" max="42" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.75" style="4" customWidth="1"/>
+    <col min="46" max="46" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="3.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4781,43 +4582,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="29"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="39"/>
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="23"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4826,43 +4627,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="38"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="48"/>
       <c r="Y2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="23"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -4871,39 +4672,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="41"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="51"/>
       <c r="Y3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="23"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="33"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5083,7 +4884,7 @@
     <row r="36" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="15"/>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5091,72 +4892,72 @@
     </row>
     <row r="38" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="15"/>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47" t="s">
+      <c r="F38" s="24"/>
+      <c r="G38" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="46" t="s">
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="48"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="26"/>
     </row>
     <row r="39" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="15"/>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="43" t="s">
+      <c r="F39" s="22"/>
+      <c r="G39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="44" t="s">
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="45"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="23"/>
     </row>
     <row r="40" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="15"/>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="43" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="44" t="s">
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="45"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="23"/>
     </row>
     <row r="41" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="15"/>
@@ -5435,14 +5236,14 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5453,324 +5254,255 @@
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
+      <c r="G101" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="102" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
-      <c r="F102" s="4" t="s">
-        <v>59</v>
+      <c r="G102" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
-      <c r="G103" s="4" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="104" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
-      <c r="G104" s="4" t="s">
-        <v>77</v>
+      <c r="F104" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
+      <c r="G105" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="106" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="4" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="107" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
+      <c r="G108" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="109" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
-      <c r="G109" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="G109" s="27"/>
     </row>
     <row r="110" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="G110" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
-      <c r="G111" s="49"/>
+      <c r="G111" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="112" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
-      <c r="G112" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
-      <c r="G113" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-    </row>
-    <row r="115" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E114" s="15" t="str">
+        <f>$D$28&amp;"3."</f>
+        <v>7.9.2.3.</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
-      <c r="G116" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
-    </row>
-    <row r="118" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="G118" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="G119" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="120" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="G120" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="121" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-    </row>
-    <row r="122" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="G122" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="123" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-    </row>
-    <row r="124" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="G124" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="G125" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="126" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D126" s="15"/>
+      <c r="F117" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+    </row>
+    <row r="119" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+    </row>
+    <row r="120" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D120" s="30" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>7.9.3.</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="28"/>
+      <c r="E121" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D122" s="28"/>
+      <c r="E122" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="28"/>
+      <c r="E123" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+    </row>
+    <row r="125" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D125" s="28"/>
+      <c r="E125" s="15" t="str">
+        <f>$D$120&amp;"1."</f>
+        <v>7.9.3.1.</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D126" s="28"/>
       <c r="E126" s="15"/>
-    </row>
-    <row r="127" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D127" s="15"/>
+      <c r="F126" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D127" s="28"/>
       <c r="E127" s="15"/>
-    </row>
-    <row r="128" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D128" s="15"/>
-      <c r="E128" s="15" t="str">
-        <f>$D$28&amp;"3."</f>
-        <v>7.9.2.3.</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="F127" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D128" s="28"/>
+      <c r="E128" s="15"/>
     </row>
     <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="4" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="4" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
-    </row>
-    <row r="133" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
-    </row>
-    <row r="134" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D134" s="52" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>7.9.3.</v>
-      </c>
-      <c r="E134" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D135" s="50"/>
-      <c r="E135" s="50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D136" s="50"/>
-      <c r="E136" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="137" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D137" s="50"/>
-      <c r="E137" s="50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="138" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D138" s="50"/>
-      <c r="E138" s="50"/>
-    </row>
-    <row r="139" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D139" s="50"/>
-      <c r="E139" s="15" t="str">
-        <f>$D$134&amp;"1."</f>
-        <v>7.9.3.1.</v>
-      </c>
-      <c r="F139" s="51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="140" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D140" s="50"/>
+    </row>
+    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E132" s="15"/>
+    </row>
+    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="15"/>
+    </row>
+    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E134" s="15"/>
+    </row>
+    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E135" s="15"/>
+    </row>
+    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D136" s="17"/>
+      <c r="E136" s="16"/>
+    </row>
+    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="18"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="19"/>
+    </row>
+    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D138" s="18"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="19"/>
+    </row>
+    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="18"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="19"/>
+    </row>
+    <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D140" s="18"/>
       <c r="E140" s="15"/>
-      <c r="F140" s="51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D141" s="50"/>
+      <c r="F140" s="19"/>
+    </row>
+    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E141" s="15"/>
-      <c r="F141" s="51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="142" spans="4:6" s="51" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D142" s="50"/>
+    </row>
+    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="15"/>
     </row>
     <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D143" s="15"/>
-    </row>
-    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D144" s="15"/>
-    </row>
-    <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D145" s="15"/>
-    </row>
-    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="15"/>
-    </row>
-    <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E147" s="15"/>
-    </row>
-    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="15"/>
-    </row>
-    <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="15"/>
-    </row>
-    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D150" s="17"/>
-      <c r="E150" s="16"/>
-    </row>
-    <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="18"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="19"/>
-    </row>
-    <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="18"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="19"/>
-    </row>
-    <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="18"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="19"/>
-    </row>
-    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="18"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="19"/>
-    </row>
-    <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E155" s="15"/>
-    </row>
-    <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E156" s="15"/>
-    </row>
-    <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E157" s="15"/>
-    </row>
-    <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E143" s="15"/>
+    </row>
+    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="162" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6186,20 +5918,6 @@
     <row r="573" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="574" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="575" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -6217,11 +5935,10 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="4" manualBreakCount="4">
+  <rowBreaks count="3" manualBreakCount="3">
     <brk id="44" max="34" man="1"/>
     <brk id="68" max="34" man="1"/>
     <brk id="94" max="34" man="1"/>
-    <brk id="132" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6358A0D6-6598-4E36-9445-09084CE09EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99648525-CF2E-4080-958D-F4D1D5592C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,49 +330,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面オンライン処理方式用の業務日付区分の定義と、業務日付の更新</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショリホウシキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面オンライン処理方式用の業務日付の変更は業務閉塞中に行うことを前提としているため、業務の開閉局スケジュールを整理した上で</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショリホウシキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付テーブルの業務日付区分を定義する。</t>
-    <rPh sb="11" eb="13">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付更新処理は、各業務日付区分の開局処理の先行ジョブとして日次実行する。</t>
-    <rPh sb="13" eb="15">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>システム日時とは、各アプリケーションのJVMが稼動するサーバータイマーを基準とした日付と時刻である。</t>
   </si>
   <si>
@@ -625,6 +582,79 @@
   </si>
   <si>
     <t>画面オンライン処理方式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付区分の定義と、業務日付の更新</t>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、業務日付の更新は日次バッチで行うこととする。</t>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付の更新は、業務日付区分ごとにその業務日付を使用する機能の利用が中断されているときに行う前提とする。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このため、業務日付区分は各機能が稼働している時間（開閉局時間・ジョブスケジュール）を整理した上で定義すること。</t>
+    <rPh sb="5" eb="9">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5236,14 +5266,14 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5254,21 +5284,21 @@
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5286,7 +5316,7 @@
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="G105" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5297,14 +5327,14 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5316,14 +5346,14 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="G110" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="G111" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5341,28 +5371,28 @@
         <v>7.9.2.3.</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5385,19 +5415,19 @@
     <row r="121" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="28"/>
       <c r="E121" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="28"/>
       <c r="E122" s="28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D123" s="28"/>
       <c r="E123" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5411,21 +5441,21 @@
         <v>7.9.3.1.</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D126" s="28"/>
       <c r="E126" s="15"/>
       <c r="F126" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D127" s="28"/>
       <c r="E127" s="15"/>
       <c r="F127" s="29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99648525-CF2E-4080-958D-F4D1D5592C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19395" windowHeight="6810"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日付・時刻処理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc292985312" localSheetId="0">日付・時刻処理方式!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">日付・時刻処理方式!$A$1:$AI$96</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">日付・時刻処理方式!$A$1:$AI$130</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -48,36 +60,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>方針</t>
-  </si>
-  <si>
-    <t>概要</t>
-  </si>
-  <si>
-    <t>上記の特徴を踏まえ、本システムでの選択基準を以下に示す。</t>
-  </si>
-  <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロード方式</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する</t>
-  </si>
-  <si>
     <t>基本概念</t>
   </si>
   <si>
     <t>業務日付</t>
-  </si>
-  <si>
-    <t>システム日時</t>
   </si>
   <si>
     <t>日付・時刻処理方式</t>
@@ -96,153 +82,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日付の概念</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>システム日時</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務日付</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付の概念には、以下の概念がある。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイネン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付の基本概念</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務日付とシステム日時の使いわけ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務日付の取得方法</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>現在の日付および時刻のこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>運用上のイベントを基準として算出された日付のこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日中にオンライン処理から受け付けた処理要求を一括処理しているバッチ処理の場合、当該日の夜間バッチが</t>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日中のオンライン処理と夜間バッチが同じ日付で処理されることが保証される。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全て終了した後にバッチ業務日付を更新することで、夜間バッチが0:00を超えた後で起動した場合でも、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchで提供されている当該機能(SystemTimeUtil) を使用して、現在日時を取得する。</t>
-    <rPh sb="36" eb="38">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付の概要</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付は、運用上のイベントを基準として産出された日付のことである。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サンシュツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務日付の必要性を、典型的な日次バッチ処理を例として説明する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -280,23 +131,6 @@
   </si>
   <si>
     <t>バッチ業務日付を導入することにより、夜間バッチが0:00を超え起動したとしても、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日中のオンライン処理と夜間バッチが同じ日付で処理されることが保証される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>現在日時を取得するため。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -313,48 +147,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム日時は実時間を扱う場合に使用し、業務日付は業務アプリケーションにおいて日付を扱う場合に使用する。</t>
-    <rPh sb="4" eb="6">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ジツジカン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付取得APIを呼ぶ度に逐一業務日付テーブルにアクセスして取得する。</t>
-  </si>
-  <si>
-    <t>業務日付区分を主キーとして、オンライン業務日付をDB上のテーブルに格納する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -373,22 +165,6 @@
   <si>
     <t>確認</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>業務要件に応じて使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -397,6 +173,487 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本章では、本システムにおける日付・時刻の概念と、それらを取得する際の処理方式について述べる。</t>
+  </si>
+  <si>
+    <t>業務日付とシステム日時の基本概念</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日時とは、本システムが稼動するOSが返す現在の日付および時刻であり、世間一般に認識される日付と原則的には同じ概念である。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一方、業務日付とは、オンライン開局などの運用上のイベントを基準として算出された日付のことを指し、通常の日付の概念とは必ずしも</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一致しない。また、業務日付には、時刻の概念は含まれない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムにおける日付の概念は、システム日時と業務日付の２種類に分かれる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（例えば、”4月1日 3:00” を “3月31日 27:00” と読み替えることにより、業務「日時」をサポートする考え方もあるが、本システムでは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのような対応は行わない）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日時は、データの更新日時など、実時間そのものを扱う場合に使用する。</t>
+  </si>
+  <si>
+    <t>業務日付には時刻の概念が含まれないため、本システムにおいて日時を扱う場合は常にシステム日時を利用することになる。</t>
+  </si>
+  <si>
+    <t>一方、業務アプリケーションにおいて日付を扱う場合は、原則として必ず業務日付を使用する。</t>
+  </si>
+  <si>
+    <t>ログインアカウントの有効期限を例に考えると、有効期限が日時で設定されている場合は、システム時間を使用して判定を行い、有効期限が</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付で設定されている場合は業務日付（オンライン業務日付）で判定を行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これにより、各業務処理において、実行時刻を意識して業務日付を算出するような処理を個別に実装する必要がなくなる。</t>
+  </si>
+  <si>
+    <t>業務日付の値は、その用途ごとに、業務日付区分 と呼ばれるコードを割り振り、個別に定義する。</t>
+  </si>
+  <si>
+    <t>各業務日付は、この業務日付区分を主キーとしてDB上のテーブルに格納する。</t>
+  </si>
+  <si>
+    <t>以下は本システムにおける業務日付区分の定義である。</t>
+  </si>
+  <si>
+    <t>本システムでは、システム日時を取得するAPIとは別に、業務日付を取得するAPIを提供する。</t>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンライン業務日付</t>
+    <rPh sb="5" eb="7">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ業務日付</t>
+    <rPh sb="3" eb="7">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新タイミング</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンライン開局前</t>
+    <rPh sb="5" eb="8">
+      <t>カイキョクマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当日の全バッチ処理終了後</t>
+    <rPh sb="0" eb="3">
+      <t>ガイトウビ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、バッチ処理では、起動パラメータに業務日付を指定することができる。</t>
+  </si>
+  <si>
+    <t>これは、リラン・リスタート制御のように、以前に受けたリクエストを過去日付で再実行するような場合に使用する。</t>
+  </si>
+  <si>
+    <t>業務日付の取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ処理方式</t>
+  </si>
+  <si>
+    <t>（これ以外にも業務毎に業務日付を定義する場合がある）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日時とは、各アプリケーションのJVMが稼動するサーバータイマーを基準とした日付と時刻である。</t>
+  </si>
+  <si>
+    <t>（各サーバの時間はNTPサーバ等を通じて同期されているものとする。）</t>
+  </si>
+  <si>
+    <t>タイマーの時差を除けば、この日時は世界標準時を基準としたローカルタイム(UTC:+9:00) に一致する。</t>
+  </si>
+  <si>
+    <t>システム日時の取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、システム日時の取得にJDKが提供するAPI（System.currentTimeMills()、LocalDate.now()など）を使用することを禁止する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代わりに、Nablarchが提供するシステム日時取得用のAPI(SystemTimeUtil)を使用することとする。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、業務日付を取得する方法としてNablarchが提供する業務日付取得機能(BusinessDateUtil)を使用する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>シュトクキノウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下で、各処理方式毎に業務日付の取得方法を説明する。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの業務日付取得機能を使い、業務日付を取得する。</t>
+    <rPh sb="9" eb="13">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面オンラインは基本的にJVMを停止しないので、キャッシュは行わず都度業務日付テーブルにアクセスする。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ処理方式ではバッチ実行基盤によってバッチ起動時に業務日付が取得され、キャッシュされる。</t>
+    <rPh sb="12" eb="16">
+      <t>ジッコウキバン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの業務日付取得機能は、このキャッシュされた日付を返すようになっている。</t>
+    <rPh sb="9" eb="13">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シュトクキノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの業務日付取得機能は、システムプロパティで業務日付を指定する機能を提供している。</t>
+    <rPh sb="9" eb="11">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付を指定してバッチを実行する場合は、この機能を利用して業務日付を指定する。</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面オンライン処理方式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付区分の定義と、業務日付の更新</t>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、業務日付の更新は日次バッチで行うこととする。</t>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付の更新は、業務日付区分ごとにその業務日付を使用する機能の利用が中断されているときに行う前提とする。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このため、業務日付区分は各機能が稼働している時間（開閉局時間・ジョブスケジュール）を整理した上で定義すること。</t>
+    <rPh sb="5" eb="9">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -404,11 +661,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +707,14 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -466,7 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDAEEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +885,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,36 +934,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -714,20 +949,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -798,15 +1048,23 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDAEEF3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -818,25 +1076,31 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1025" name="Group 1"/>
+        <xdr:cNvPr id="52" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FA107A-CD32-4966-92EE-80D051CA480C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1381125" y="6115050"/>
+          <a:off x="1381125" y="7543800"/>
           <a:ext cx="5695950" cy="2066925"/>
           <a:chOff x="1867" y="1745"/>
           <a:chExt cx="8976" cy="3258"/>
@@ -844,7 +1108,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1044" name="AutoShape 20"/>
+          <xdr:cNvPr id="53" name="AutoShape 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EED743-3076-4097-9FBB-D1457D219B99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -871,7 +1141,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1043" name="AutoShape 19"/>
+          <xdr:cNvPr id="54" name="AutoShape 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D345F9-CE5B-4D16-9971-E4329925A559}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -901,7 +1177,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1042" name="AutoShape 18"/>
+          <xdr:cNvPr id="55" name="AutoShape 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA560C3-750B-4792-9A65-539EC45379BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -931,7 +1213,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1041" name="Text Box 17"/>
+          <xdr:cNvPr id="56" name="Text Box 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657ACB9D-F7B6-4B1C-8EE3-C0161D004C12}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -990,7 +1278,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1040" name="Text Box 16"/>
+          <xdr:cNvPr id="57" name="Text Box 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC13AF0-A72A-4ED9-9B0F-0ABEAFF8ACE6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1049,7 +1343,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1039" name="Text Box 15"/>
+          <xdr:cNvPr id="58" name="Text Box 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F4D62D-7709-48E1-B3AC-C6AB49E95D3E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1108,7 +1408,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1038" name="Text Box 14"/>
+          <xdr:cNvPr id="59" name="Text Box 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CCA2AB-7F82-4090-A8B8-81252DE5C69C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1167,7 +1473,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1037" name="Text Box 13"/>
+          <xdr:cNvPr id="60" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5496D7-CEA9-439E-B4DE-FDF17D299A68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1228,7 +1540,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1036" name="Text Box 12"/>
+          <xdr:cNvPr id="61" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A4CE00-392D-431F-B10C-D242D61FF685}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1287,7 +1605,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1035" name="Text Box 11"/>
+          <xdr:cNvPr id="62" name="Text Box 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4735A1A1-4C7D-4972-B91B-B5FD040796C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1346,7 +1670,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1034" name="AutoShape 10"/>
+          <xdr:cNvPr id="63" name="AutoShape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423D7948-48E4-4BE2-9858-B41BB4E99E72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1471,7 +1801,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1033" name="Text Box 9"/>
+          <xdr:cNvPr id="64" name="Text Box 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68DDA66-11AE-46F2-AEB8-310F994C9DC5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1530,7 +1866,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1032" name="AutoShape 8"/>
+          <xdr:cNvPr id="65" name="AutoShape 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9205CB9-9444-4598-B21E-957D4BA27ADC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1655,7 +1997,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1031" name="Text Box 7"/>
+          <xdr:cNvPr id="66" name="Text Box 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE567E49-9BF1-47E6-8794-5EA7D2282E0A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1714,7 +2062,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1030" name="AutoShape 6"/>
+          <xdr:cNvPr id="67" name="AutoShape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512AFEEA-0B94-42F7-AB65-F31AB9629830}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1839,7 +2193,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1029" name="Line 5"/>
+          <xdr:cNvPr id="68" name="Line 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C663066B-F42A-42D6-856A-4857FDE8F0C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1872,7 +2232,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1028" name="AutoShape 4"/>
+          <xdr:cNvPr id="69" name="AutoShape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AFC383-9F2A-4F21-B5D8-B9124228B00F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1900,7 +2266,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1027" name="Text Box 3"/>
+          <xdr:cNvPr id="70" name="Text Box 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAB6BFA-6D38-4B5A-A7CD-ADAD183191F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1981,7 +2353,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1026" name="Line 2"/>
+          <xdr:cNvPr id="71" name="Line 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E745F5DA-C5E3-49D9-B7A3-A5C8875E36BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2019,25 +2397,31 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1075" name="Group 51"/>
+        <xdr:cNvPr id="72" name="Group 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E98ECE-7291-4656-ADC1-2CC1467E1A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1285875" y="9267825"/>
+          <a:off x="1285875" y="10696575"/>
           <a:ext cx="5857875" cy="2990850"/>
           <a:chOff x="1867" y="3796"/>
           <a:chExt cx="9218" cy="5421"/>
@@ -2045,7 +2429,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1104" name="AutoShape 80"/>
+          <xdr:cNvPr id="73" name="AutoShape 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF50C579-06DD-433F-9092-ACE74A08FE78}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -2072,7 +2462,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1103" name="AutoShape 79"/>
+          <xdr:cNvPr id="74" name="AutoShape 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34075899-986B-4C37-8FAC-BBB9D3186455}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2102,7 +2498,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1102" name="AutoShape 78"/>
+          <xdr:cNvPr id="75" name="AutoShape 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF225BD2-E21E-4E8A-9A23-96C82C605710}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2132,7 +2534,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1101" name="AutoShape 77"/>
+          <xdr:cNvPr id="76" name="AutoShape 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3580F6-F344-47FD-8B72-BA69DCFA80FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2162,7 +2570,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1100" name="AutoShape 76"/>
+          <xdr:cNvPr id="77" name="AutoShape 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8037463-FCEE-43C0-BF2F-7B495C43F136}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2192,7 +2606,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1099" name="Text Box 75"/>
+          <xdr:cNvPr id="78" name="Text Box 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8171F732-9F5C-49AA-BE11-3C8F29C82F2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2253,7 +2673,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1098" name="Text Box 74"/>
+          <xdr:cNvPr id="79" name="Text Box 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BDB252-824E-4B6C-9042-9CA13440EEF1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2314,7 +2740,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1097" name="Text Box 73"/>
+          <xdr:cNvPr id="80" name="Text Box 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4B8214-7209-4FC2-8A37-AA2180746DCC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2373,7 +2805,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1096" name="Text Box 72"/>
+          <xdr:cNvPr id="81" name="Text Box 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F464F8FD-EB55-4B96-82C9-4E3785D6E1D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2432,7 +2870,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1095" name="Text Box 71"/>
+          <xdr:cNvPr id="82" name="Text Box 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A25BA97-C43D-403C-84F6-F97C1D739ABB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2491,7 +2935,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1094" name="Text Box 70"/>
+          <xdr:cNvPr id="83" name="Text Box 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB3835E-4A37-462A-933C-B574853A72A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2550,7 +3000,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1093" name="Text Box 69"/>
+          <xdr:cNvPr id="84" name="Text Box 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC19198-EBE5-4903-8B9E-6813CFE5FB90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2609,7 +3065,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1092" name="Text Box 68"/>
+          <xdr:cNvPr id="85" name="Text Box 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655164B6-A43C-4F54-9126-698A17C247C2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2668,7 +3130,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1091" name="Text Box 67"/>
+          <xdr:cNvPr id="86" name="Text Box 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADB36F2-C346-4338-A69A-9684F691D3A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2749,7 +3217,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1090" name="Text Box 66"/>
+          <xdr:cNvPr id="87" name="Text Box 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D652ED6D-BA7A-482C-B111-138D710877AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2808,7 +3282,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1089" name="Text Box 65"/>
+          <xdr:cNvPr id="88" name="Text Box 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A44AAE-67A4-4CC2-9C31-A2F500F24BA1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2867,7 +3347,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1088" name="AutoShape 64"/>
+          <xdr:cNvPr id="89" name="AutoShape 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CBD92C-2976-4DD8-A36E-B3AA36E299B7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2992,7 +3478,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1087" name="Text Box 63"/>
+          <xdr:cNvPr id="90" name="Text Box 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60A0936-D94F-4F5B-BE3F-4C55496E4049}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3053,7 +3545,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1086" name="AutoShape 62"/>
+          <xdr:cNvPr id="91" name="AutoShape 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4A6038-F0BB-4273-A3FE-CC8A090FBDA6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3178,7 +3676,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1085" name="Text Box 61"/>
+          <xdr:cNvPr id="92" name="Text Box 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DF0A48-AC62-4D07-A668-735D59F8C0AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3239,7 +3743,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1084" name="AutoShape 60"/>
+          <xdr:cNvPr id="93" name="AutoShape 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526A1AAC-1E21-418E-A04D-4E2FEA215E00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3269,7 +3779,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1083" name="AutoShape 59"/>
+          <xdr:cNvPr id="94" name="AutoShape 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6A3B58-ECB7-497C-9138-B9DADB068463}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3299,7 +3815,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1082" name="Text Box 58"/>
+          <xdr:cNvPr id="95" name="Text Box 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF9DD30-E252-40A4-821B-0D3930A80C10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3360,7 +3882,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1081" name="Text Box 57"/>
+          <xdr:cNvPr id="96" name="Text Box 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E389BAD5-26DC-456E-A8B2-FA18FF5B95A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3419,7 +3947,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1080" name="Text Box 56"/>
+          <xdr:cNvPr id="97" name="Text Box 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092B69E5-9F28-4E78-866D-D794EC68F29C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3478,7 +4012,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1079" name="Line 55"/>
+          <xdr:cNvPr id="98" name="Line 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D51EED5-62B1-48A8-8706-3EADEF60034D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3511,7 +4051,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1078" name="AutoShape 54"/>
+          <xdr:cNvPr id="99" name="AutoShape 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404E760F-CD6C-462E-9898-38E60597871F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3636,7 +4182,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1077" name="Line 53"/>
+          <xdr:cNvPr id="100" name="Line 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA19409E-D7A4-4674-82C2-E8E7A17E6640}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3669,7 +4221,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1076" name="Line 52"/>
+          <xdr:cNvPr id="101" name="Line 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943EB6AC-9F32-4CFB-BAA7-A1F4B712A188}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3707,7 +4265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3749,7 +4307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3782,9 +4340,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3817,6 +4392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3992,11 +4584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI541"/>
+  <dimension ref="A1:AI575"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4004,53 +4596,59 @@
   <cols>
     <col min="1" max="18" width="3.625" style="4"/>
     <col min="19" max="19" width="3.625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="3.625" style="4"/>
+    <col min="20" max="39" width="3.625" style="4"/>
+    <col min="40" max="42" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.75" style="4" customWidth="1"/>
+    <col min="46" max="46" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="3.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="44"/>
+      <c r="R1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="39"/>
       <c r="Y1" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4059,43 +4657,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="8" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="48"/>
       <c r="Y2" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -4104,39 +4702,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="51"/>
       <c r="Y3" s="12" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="38"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="33"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4154,903 +4752,771 @@
         <v>7.9.</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="15" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="15" t="str">
         <f>$C$7&amp;"1."</f>
         <v>7.9.1.</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>7.9.1.1.</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="str">
+        <f>$D$11&amp;"1."</f>
+        <v>7.9.1.1.</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="15"/>
-      <c r="F14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="21"/>
+      <c r="D14" s="15"/>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="24"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="15"/>
-      <c r="F16" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="21"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="15"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="21"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="15"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="15"/>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="15"/>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="15"/>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="15" t="str">
+        <f>$D$11&amp;"2."</f>
+        <v>7.9.1.2.</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="15"/>
       <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="18"/>
-    </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="33"/>
-    </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="35"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="33"/>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="35"/>
-    </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="15"/>
+      <c r="F22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="15"/>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="15"/>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="15"/>
+      <c r="F25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="str">
-        <f>$D$9&amp;"2."</f>
-        <v>7.9.1.2.</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="15" t="str">
+    </row>
+    <row r="28" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.9.2.</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="15"/>
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="15"/>
+      <c r="E30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="15"/>
+      <c r="E32" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="15"/>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="15"/>
+      <c r="E35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="15"/>
+      <c r="E36" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="15"/>
+      <c r="E38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="26"/>
+    </row>
+    <row r="39" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="15"/>
+      <c r="E39" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="23"/>
+    </row>
+    <row r="40" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="15"/>
+      <c r="E40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="23"/>
+    </row>
+    <row r="41" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="15"/>
+      <c r="E42" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="15"/>
+      <c r="E43" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="15"/>
+      <c r="E45" s="17" t="str">
+        <f>$D$28&amp;"1."</f>
+        <v>7.9.2.1.</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="15"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="15"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="15"/>
-      <c r="E32" s="27" t="str">
-        <f>$D$31&amp;"1."</f>
-        <v>7.9.2.1.</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="15"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="15"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="15"/>
-      <c r="E35" s="27" t="str">
-        <f>$D$31&amp;"2."</f>
-        <v>7.9.2.2.</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="15"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="15"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="15"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="15"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="15"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="15"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="15"/>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="15"/>
-      <c r="E43" s="27"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="15"/>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="15"/>
-      <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="15"/>
-      <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="15"/>
-      <c r="E47" s="27"/>
-    </row>
-    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="15"/>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="17"/>
+      <c r="F48" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="15"/>
-      <c r="E49" s="27"/>
-    </row>
-    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="17"/>
+      <c r="F49" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="15"/>
-      <c r="E50" s="27"/>
-    </row>
-    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="17"/>
+      <c r="F50" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="15"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="15"/>
-      <c r="E52" s="27"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="15"/>
-      <c r="E53" s="27"/>
+      <c r="E53" s="17"/>
+      <c r="F53"/>
     </row>
     <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="15"/>
-      <c r="E54" s="27"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="15"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="15"/>
-      <c r="E56" s="27"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="15"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="15"/>
-      <c r="E58" s="27"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="15"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="15"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="15"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="E63" s="17"/>
     </row>
     <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="15"/>
-      <c r="E64" s="27"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="15"/>
-      <c r="E65" s="27"/>
+      <c r="E65" s="17"/>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="15"/>
-      <c r="E66" s="27"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="15"/>
-      <c r="E67" s="27"/>
+      <c r="E67" s="17"/>
     </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15"/>
-      <c r="E68" s="27"/>
+      <c r="E68" s="17"/>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="15"/>
-      <c r="E69" s="27"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D70" s="15"/>
-      <c r="E70" s="27"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="15"/>
-      <c r="E71" s="27"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D72" s="15"/>
-      <c r="E72" s="27"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="15"/>
-      <c r="E73" s="27"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D74" s="15"/>
-      <c r="E74" s="27"/>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="15"/>
-      <c r="E75" s="27"/>
+      <c r="E75" s="17"/>
     </row>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="15"/>
-      <c r="E76" s="27"/>
-      <c r="F76"/>
+      <c r="E76" s="17"/>
     </row>
     <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="15"/>
-      <c r="E77" s="27"/>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
-      <c r="E78" s="27"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="15"/>
-      <c r="E79" s="27"/>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="15"/>
-      <c r="E80" s="27"/>
+      <c r="E80" s="17"/>
     </row>
     <row r="81" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="15"/>
-      <c r="E81" s="27"/>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="15"/>
-      <c r="E82" s="27"/>
+      <c r="E82" s="17"/>
     </row>
     <row r="83" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="15"/>
-      <c r="E83" s="27"/>
+      <c r="E83" s="17"/>
     </row>
     <row r="84" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="15"/>
-      <c r="E84" s="27"/>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="15"/>
-      <c r="E85" s="27"/>
+      <c r="E85" s="17"/>
     </row>
     <row r="86" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="15"/>
-      <c r="E86" s="27" t="str">
-        <f>$D$31&amp;"3."</f>
-        <v>7.9.2.3.</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E86" s="17"/>
+      <c r="F86"/>
     </row>
     <row r="87" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="15"/>
-      <c r="F87" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="E87" s="17"/>
     </row>
     <row r="88" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="15"/>
-      <c r="F88" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="17"/>
     </row>
     <row r="89" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="17"/>
     </row>
     <row r="90" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="17"/>
     </row>
     <row r="91" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="27" t="str">
+      <c r="D91" s="15"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="15"/>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="15"/>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="15"/>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="15"/>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="15"/>
+      <c r="E96" s="15" t="str">
+        <f>$D$28&amp;"2."</f>
+        <v>7.9.2.2.</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="G101" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="G102" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="G105" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="G107" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="G108" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="G109" s="27"/>
+    </row>
+    <row r="110" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="G110" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="G111" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+    </row>
+    <row r="113" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+    </row>
+    <row r="114" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D114" s="15"/>
+      <c r="E114" s="15" t="str">
+        <f>$D$28&amp;"3."</f>
+        <v>7.9.2.3.</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+    </row>
+    <row r="119" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+    </row>
+    <row r="120" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D120" s="30" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.9.3.</v>
       </c>
-      <c r="E91" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D92" s="28"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D93" s="15"/>
-      <c r="E93" s="27"/>
-    </row>
-    <row r="94" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="15"/>
-    </row>
-    <row r="95" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D95" s="15"/>
-    </row>
-    <row r="96" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D96" s="15"/>
-    </row>
-    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D97" s="15"/>
-    </row>
-    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E101" s="15"/>
-    </row>
-    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D102" s="27"/>
-      <c r="E102" s="26"/>
-    </row>
-    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D103" s="28"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="29"/>
-    </row>
-    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D104" s="28"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="29"/>
-    </row>
-    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D105" s="28"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="29"/>
-    </row>
-    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="28"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="29"/>
-    </row>
-    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E107" s="15"/>
-    </row>
-    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E108" s="15"/>
-    </row>
-    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E109" s="15"/>
-    </row>
-    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E120" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="28"/>
+      <c r="E121" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D122" s="28"/>
+      <c r="E122" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="28"/>
+      <c r="E123" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+    </row>
+    <row r="125" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D125" s="28"/>
+      <c r="E125" s="15" t="str">
+        <f>$D$120&amp;"1."</f>
+        <v>7.9.3.1.</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D126" s="28"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D127" s="28"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D128" s="28"/>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D129" s="15"/>
+    </row>
+    <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D130" s="15"/>
+    </row>
+    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D131" s="15"/>
+    </row>
+    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E132" s="15"/>
+    </row>
+    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="15"/>
+    </row>
+    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E134" s="15"/>
+    </row>
+    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E135" s="15"/>
+    </row>
+    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D136" s="17"/>
+      <c r="E136" s="16"/>
+    </row>
+    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="18"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="19"/>
+    </row>
+    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D138" s="18"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="19"/>
+    </row>
+    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="18"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="19"/>
+    </row>
+    <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D140" s="18"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="19"/>
+    </row>
+    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E141" s="15"/>
+    </row>
+    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E142" s="15"/>
+    </row>
+    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E143" s="15"/>
+    </row>
+    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5448,6 +5914,40 @@
     <row r="539" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="540" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="541" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5465,9 +5965,10 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="30" max="34" man="1"/>
-    <brk id="58" max="34" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="44" max="34" man="1"/>
+    <brk id="68" max="34" man="1"/>
+    <brk id="94" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99648525-CF2E-4080-958D-F4D1D5592C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E8A32F-49B6-4BBD-8CA6-89A75DACAB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="日付・時刻処理方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.9.日付・時刻処理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc292985312" localSheetId="0">日付・時刻処理方式!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">日付・時刻処理方式!$A$1:$AI$130</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
+    <definedName name="_Toc292985312" localSheetId="0">'7.9.日付・時刻処理方式'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.9.日付・時刻処理方式'!$A$1:$AI$130</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E8A32F-49B6-4BBD-8CA6-89A75DACAB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C234F-1672-4856-8618-991FF4B3AC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,28 +343,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでは、システム日時の取得にJDKが提供するAPI（System.currentTimeMills()、LocalDate.now()など）を使用することを禁止する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>代わりに、Nablarchが提供するシステム日時取得用のAPI(SystemTimeUtil)を使用することとする。</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -654,6 +632,28 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、システム日時の取得にJDKが提供するAPI（System.currentTimeMills()、LocalDateTime.now()など）を使用することを禁止する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>キンシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5266,14 +5266,14 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5284,21 +5284,21 @@
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5316,7 +5316,7 @@
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="G105" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5327,14 +5327,14 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5346,14 +5346,14 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="G110" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="G111" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5371,28 +5371,28 @@
         <v>7.9.2.3.</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5448,14 +5448,14 @@
       <c r="D126" s="28"/>
       <c r="E126" s="15"/>
       <c r="F126" s="29" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D127" s="28"/>
       <c r="E127" s="15"/>
       <c r="F127" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99648525-CF2E-4080-958D-F4D1D5592C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C234F-1672-4856-8618-991FF4B3AC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="日付・時刻処理方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.9.日付・時刻処理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc292985312" localSheetId="0">日付・時刻処理方式!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">日付・時刻処理方式!$A$1:$AI$130</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$143</definedName>
+    <definedName name="_Toc292985312" localSheetId="0">'7.9.日付・時刻処理方式'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.9.日付・時刻処理方式'!$A$1:$AI$130</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -343,28 +343,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでは、システム日時の取得にJDKが提供するAPI（System.currentTimeMills()、LocalDate.now()など）を使用することを禁止する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>代わりに、Nablarchが提供するシステム日時取得用のAPI(SystemTimeUtil)を使用することとする。</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -654,6 +632,28 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、システム日時の取得にJDKが提供するAPI（System.currentTimeMills()、LocalDateTime.now()など）を使用することを禁止する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>キンシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5266,14 +5266,14 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5284,21 +5284,21 @@
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5316,7 +5316,7 @@
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="G105" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5327,14 +5327,14 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="G107" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="G108" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5346,14 +5346,14 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="G110" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="G111" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5371,28 +5371,28 @@
         <v>7.9.2.3.</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5448,14 +5448,14 @@
       <c r="D126" s="28"/>
       <c r="E126" s="15"/>
       <c r="F126" s="29" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D127" s="28"/>
       <c r="E127" s="15"/>
       <c r="F127" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.9日付・時刻処理方式.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640C234F-1672-4856-8618-991FF4B3AC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19395" windowHeight="6810"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="日付・時刻処理方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.9.日付・時刻処理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc292985312" localSheetId="0">日付・時刻処理方式!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">日付・時刻処理方式!$A$1:$AI$96</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">日付・時刻処理方式!$A$1:$AI$109</definedName>
+    <definedName name="_Toc292985312" localSheetId="0">'7.9.日付・時刻処理方式'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.9.日付・時刻処理方式'!$A$1:$AI$130</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.9.日付・時刻処理方式'!$A$1:$AI$143</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -48,36 +60,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>方針</t>
-  </si>
-  <si>
-    <t>概要</t>
-  </si>
-  <si>
-    <t>上記の特徴を踏まえ、本システムでの選択基準を以下に示す。</t>
-  </si>
-  <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロード方式</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する</t>
-  </si>
-  <si>
     <t>基本概念</t>
   </si>
   <si>
     <t>業務日付</t>
-  </si>
-  <si>
-    <t>システム日時</t>
   </si>
   <si>
     <t>日付・時刻処理方式</t>
@@ -96,153 +82,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日付の概念</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>システム日時</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務日付</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付の概念には、以下の概念がある。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガイネン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付の基本概念</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務日付とシステム日時の使いわけ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務日付の取得方法</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>現在の日付および時刻のこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>運用上のイベントを基準として算出された日付のこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日中にオンライン処理から受け付けた処理要求を一括処理しているバッチ処理の場合、当該日の夜間バッチが</t>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日中のオンライン処理と夜間バッチが同じ日付で処理されることが保証される。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全て終了した後にバッチ業務日付を更新することで、夜間バッチが0:00を超えた後で起動した場合でも、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchで提供されている当該機能(SystemTimeUtil) を使用して、現在日時を取得する。</t>
-    <rPh sb="36" eb="38">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付の概要</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付は、運用上のイベントを基準として産出された日付のことである。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サンシュツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>業務日付の必要性を、典型的な日次バッチ処理を例として説明する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -280,23 +131,6 @@
   </si>
   <si>
     <t>バッチ業務日付を導入することにより、夜間バッチが0:00を超え起動したとしても、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日中のオンライン処理と夜間バッチが同じ日付で処理されることが保証される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>現在日時を取得するため。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -313,48 +147,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>システム日時は実時間を扱う場合に使用し、業務日付は業務アプリケーションにおいて日付を扱う場合に使用する。</t>
-    <rPh sb="4" eb="6">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ジツジカン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務日付取得APIを呼ぶ度に逐一業務日付テーブルにアクセスして取得する。</t>
-  </si>
-  <si>
-    <t>業務日付区分を主キーとして、オンライン業務日付をDB上のテーブルに格納する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -373,22 +165,6 @@
   <si>
     <t>確認</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>業務要件に応じて使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>要件定義</t>
@@ -397,6 +173,487 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本章では、本システムにおける日付・時刻の概念と、それらを取得する際の処理方式について述べる。</t>
+  </si>
+  <si>
+    <t>業務日付とシステム日時の基本概念</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日時とは、本システムが稼動するOSが返す現在の日付および時刻であり、世間一般に認識される日付と原則的には同じ概念である。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一方、業務日付とは、オンライン開局などの運用上のイベントを基準として算出された日付のことを指し、通常の日付の概念とは必ずしも</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一致しない。また、業務日付には、時刻の概念は含まれない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムにおける日付の概念は、システム日時と業務日付の２種類に分かれる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（例えば、”4月1日 3:00” を “3月31日 27:00” と読み替えることにより、業務「日時」をサポートする考え方もあるが、本システムでは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのような対応は行わない）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日時は、データの更新日時など、実時間そのものを扱う場合に使用する。</t>
+  </si>
+  <si>
+    <t>業務日付には時刻の概念が含まれないため、本システムにおいて日時を扱う場合は常にシステム日時を利用することになる。</t>
+  </si>
+  <si>
+    <t>一方、業務アプリケーションにおいて日付を扱う場合は、原則として必ず業務日付を使用する。</t>
+  </si>
+  <si>
+    <t>ログインアカウントの有効期限を例に考えると、有効期限が日時で設定されている場合は、システム時間を使用して判定を行い、有効期限が</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付で設定されている場合は業務日付（オンライン業務日付）で判定を行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これにより、各業務処理において、実行時刻を意識して業務日付を算出するような処理を個別に実装する必要がなくなる。</t>
+  </si>
+  <si>
+    <t>業務日付の値は、その用途ごとに、業務日付区分 と呼ばれるコードを割り振り、個別に定義する。</t>
+  </si>
+  <si>
+    <t>各業務日付は、この業務日付区分を主キーとしてDB上のテーブルに格納する。</t>
+  </si>
+  <si>
+    <t>以下は本システムにおける業務日付区分の定義である。</t>
+  </si>
+  <si>
+    <t>本システムでは、システム日時を取得するAPIとは別に、業務日付を取得するAPIを提供する。</t>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンライン業務日付</t>
+    <rPh sb="5" eb="7">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ業務日付</t>
+    <rPh sb="3" eb="7">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新タイミング</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンライン開局前</t>
+    <rPh sb="5" eb="8">
+      <t>カイキョクマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当日の全バッチ処理終了後</t>
+    <rPh sb="0" eb="3">
+      <t>ガイトウビ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、バッチ処理では、起動パラメータに業務日付を指定することができる。</t>
+  </si>
+  <si>
+    <t>これは、リラン・リスタート制御のように、以前に受けたリクエストを過去日付で再実行するような場合に使用する。</t>
+  </si>
+  <si>
+    <t>業務日付の取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ処理方式</t>
+  </si>
+  <si>
+    <t>（これ以外にも業務毎に業務日付を定義する場合がある）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日時とは、各アプリケーションのJVMが稼動するサーバータイマーを基準とした日付と時刻である。</t>
+  </si>
+  <si>
+    <t>（各サーバの時間はNTPサーバ等を通じて同期されているものとする。）</t>
+  </si>
+  <si>
+    <t>タイマーの時差を除けば、この日時は世界標準時を基準としたローカルタイム(UTC:+9:00) に一致する。</t>
+  </si>
+  <si>
+    <t>システム日時の取得</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代わりに、Nablarchが提供するシステム日時取得用のAPI(SystemTimeUtil)を使用することとする。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、業務日付を取得する方法としてNablarchが提供する業務日付取得機能(BusinessDateUtil)を使用する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>シュトクキノウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下で、各処理方式毎に業務日付の取得方法を説明する。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの業務日付取得機能を使い、業務日付を取得する。</t>
+    <rPh sb="9" eb="13">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面オンラインは基本的にJVMを停止しないので、キャッシュは行わず都度業務日付テーブルにアクセスする。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ処理方式ではバッチ実行基盤によってバッチ起動時に業務日付が取得され、キャッシュされる。</t>
+    <rPh sb="12" eb="16">
+      <t>ジッコウキバン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>キドウジ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの業務日付取得機能は、このキャッシュされた日付を返すようになっている。</t>
+    <rPh sb="9" eb="13">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>シュトクキノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchの業務日付取得機能は、システムプロパティで業務日付を指定する機能を提供している。</t>
+    <rPh sb="9" eb="11">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付を指定してバッチを実行する場合は、この機能を利用して業務日付を指定する。</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面オンライン処理方式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付区分の定義と、業務日付の更新</t>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、業務日付の更新は日次バッチで行うこととする。</t>
+    <rPh sb="11" eb="13">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務日付の更新は、業務日付区分ごとにその業務日付を使用する機能の利用が中断されているときに行う前提とする。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このため、業務日付区分は各機能が稼働している時間（開閉局時間・ジョブスケジュール）を整理した上で定義すること。</t>
+    <rPh sb="5" eb="9">
+      <t>ギョウムヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、システム日時の取得にJDKが提供するAPI（System.currentTimeMills()、LocalDateTime.now()など）を使用することを禁止する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>キンシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -404,11 +661,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +707,14 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -466,7 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFDAEEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +885,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,36 +934,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -714,20 +949,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -798,15 +1048,23 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDAEEF3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -818,25 +1076,31 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1025" name="Group 1"/>
+        <xdr:cNvPr id="52" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45FA107A-CD32-4966-92EE-80D051CA480C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1381125" y="6115050"/>
+          <a:off x="1381125" y="7543800"/>
           <a:ext cx="5695950" cy="2066925"/>
           <a:chOff x="1867" y="1745"/>
           <a:chExt cx="8976" cy="3258"/>
@@ -844,7 +1108,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1044" name="AutoShape 20"/>
+          <xdr:cNvPr id="53" name="AutoShape 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EED743-3076-4097-9FBB-D1457D219B99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -871,7 +1141,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1043" name="AutoShape 19"/>
+          <xdr:cNvPr id="54" name="AutoShape 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D345F9-CE5B-4D16-9971-E4329925A559}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -901,7 +1177,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1042" name="AutoShape 18"/>
+          <xdr:cNvPr id="55" name="AutoShape 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA560C3-750B-4792-9A65-539EC45379BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -931,7 +1213,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1041" name="Text Box 17"/>
+          <xdr:cNvPr id="56" name="Text Box 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657ACB9D-F7B6-4B1C-8EE3-C0161D004C12}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -990,7 +1278,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1040" name="Text Box 16"/>
+          <xdr:cNvPr id="57" name="Text Box 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC13AF0-A72A-4ED9-9B0F-0ABEAFF8ACE6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1049,7 +1343,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1039" name="Text Box 15"/>
+          <xdr:cNvPr id="58" name="Text Box 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F4D62D-7709-48E1-B3AC-C6AB49E95D3E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1108,7 +1408,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1038" name="Text Box 14"/>
+          <xdr:cNvPr id="59" name="Text Box 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CCA2AB-7F82-4090-A8B8-81252DE5C69C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1167,7 +1473,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1037" name="Text Box 13"/>
+          <xdr:cNvPr id="60" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5496D7-CEA9-439E-B4DE-FDF17D299A68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1228,7 +1540,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1036" name="Text Box 12"/>
+          <xdr:cNvPr id="61" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A4CE00-392D-431F-B10C-D242D61FF685}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1287,7 +1605,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1035" name="Text Box 11"/>
+          <xdr:cNvPr id="62" name="Text Box 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4735A1A1-4C7D-4972-B91B-B5FD040796C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1346,7 +1670,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1034" name="AutoShape 10"/>
+          <xdr:cNvPr id="63" name="AutoShape 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423D7948-48E4-4BE2-9858-B41BB4E99E72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1471,7 +1801,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1033" name="Text Box 9"/>
+          <xdr:cNvPr id="64" name="Text Box 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68DDA66-11AE-46F2-AEB8-310F994C9DC5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1530,7 +1866,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1032" name="AutoShape 8"/>
+          <xdr:cNvPr id="65" name="AutoShape 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9205CB9-9444-4598-B21E-957D4BA27ADC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1655,7 +1997,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1031" name="Text Box 7"/>
+          <xdr:cNvPr id="66" name="Text Box 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE567E49-9BF1-47E6-8794-5EA7D2282E0A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1714,7 +2062,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1030" name="AutoShape 6"/>
+          <xdr:cNvPr id="67" name="AutoShape 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512AFEEA-0B94-42F7-AB65-F31AB9629830}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1839,7 +2193,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1029" name="Line 5"/>
+          <xdr:cNvPr id="68" name="Line 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C663066B-F42A-42D6-856A-4857FDE8F0C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1872,7 +2232,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1028" name="AutoShape 4"/>
+          <xdr:cNvPr id="69" name="AutoShape 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AFC383-9F2A-4F21-B5D8-B9124228B00F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1900,7 +2266,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1027" name="Text Box 3"/>
+          <xdr:cNvPr id="70" name="Text Box 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAB6BFA-6D38-4B5A-A7CD-ADAD183191F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1981,7 +2353,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1026" name="Line 2"/>
+          <xdr:cNvPr id="71" name="Line 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E745F5DA-C5E3-49D9-B7A3-A5C8875E36BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2019,25 +2397,31 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1075" name="Group 51"/>
+        <xdr:cNvPr id="72" name="Group 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E98ECE-7291-4656-ADC1-2CC1467E1A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1285875" y="9267825"/>
+          <a:off x="1285875" y="10696575"/>
           <a:ext cx="5857875" cy="2990850"/>
           <a:chOff x="1867" y="3796"/>
           <a:chExt cx="9218" cy="5421"/>
@@ -2045,7 +2429,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1104" name="AutoShape 80"/>
+          <xdr:cNvPr id="73" name="AutoShape 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF50C579-06DD-433F-9092-ACE74A08FE78}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -2072,7 +2462,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1103" name="AutoShape 79"/>
+          <xdr:cNvPr id="74" name="AutoShape 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34075899-986B-4C37-8FAC-BBB9D3186455}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2102,7 +2498,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1102" name="AutoShape 78"/>
+          <xdr:cNvPr id="75" name="AutoShape 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF225BD2-E21E-4E8A-9A23-96C82C605710}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2132,7 +2534,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1101" name="AutoShape 77"/>
+          <xdr:cNvPr id="76" name="AutoShape 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3580F6-F344-47FD-8B72-BA69DCFA80FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2162,7 +2570,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1100" name="AutoShape 76"/>
+          <xdr:cNvPr id="77" name="AutoShape 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8037463-FCEE-43C0-BF2F-7B495C43F136}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2192,7 +2606,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1099" name="Text Box 75"/>
+          <xdr:cNvPr id="78" name="Text Box 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8171F732-9F5C-49AA-BE11-3C8F29C82F2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2253,7 +2673,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1098" name="Text Box 74"/>
+          <xdr:cNvPr id="79" name="Text Box 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BDB252-824E-4B6C-9042-9CA13440EEF1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2314,7 +2740,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1097" name="Text Box 73"/>
+          <xdr:cNvPr id="80" name="Text Box 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4B8214-7209-4FC2-8A37-AA2180746DCC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2373,7 +2805,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1096" name="Text Box 72"/>
+          <xdr:cNvPr id="81" name="Text Box 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F464F8FD-EB55-4B96-82C9-4E3785D6E1D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2432,7 +2870,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1095" name="Text Box 71"/>
+          <xdr:cNvPr id="82" name="Text Box 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A25BA97-C43D-403C-84F6-F97C1D739ABB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2491,7 +2935,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1094" name="Text Box 70"/>
+          <xdr:cNvPr id="83" name="Text Box 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB3835E-4A37-462A-933C-B574853A72A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2550,7 +3000,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1093" name="Text Box 69"/>
+          <xdr:cNvPr id="84" name="Text Box 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC19198-EBE5-4903-8B9E-6813CFE5FB90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2609,7 +3065,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1092" name="Text Box 68"/>
+          <xdr:cNvPr id="85" name="Text Box 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655164B6-A43C-4F54-9126-698A17C247C2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2668,7 +3130,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1091" name="Text Box 67"/>
+          <xdr:cNvPr id="86" name="Text Box 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADB36F2-C346-4338-A69A-9684F691D3A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2749,7 +3217,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1090" name="Text Box 66"/>
+          <xdr:cNvPr id="87" name="Text Box 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D652ED6D-BA7A-482C-B111-138D710877AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2808,7 +3282,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1089" name="Text Box 65"/>
+          <xdr:cNvPr id="88" name="Text Box 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A44AAE-67A4-4CC2-9C31-A2F500F24BA1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2867,7 +3347,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1088" name="AutoShape 64"/>
+          <xdr:cNvPr id="89" name="AutoShape 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CBD92C-2976-4DD8-A36E-B3AA36E299B7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2992,7 +3478,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1087" name="Text Box 63"/>
+          <xdr:cNvPr id="90" name="Text Box 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60A0936-D94F-4F5B-BE3F-4C55496E4049}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3053,7 +3545,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1086" name="AutoShape 62"/>
+          <xdr:cNvPr id="91" name="AutoShape 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4A6038-F0BB-4273-A3FE-CC8A090FBDA6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3178,7 +3676,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1085" name="Text Box 61"/>
+          <xdr:cNvPr id="92" name="Text Box 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DF0A48-AC62-4D07-A668-735D59F8C0AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3239,7 +3743,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1084" name="AutoShape 60"/>
+          <xdr:cNvPr id="93" name="AutoShape 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526A1AAC-1E21-418E-A04D-4E2FEA215E00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3269,7 +3779,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1083" name="AutoShape 59"/>
+          <xdr:cNvPr id="94" name="AutoShape 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6A3B58-ECB7-497C-9138-B9DADB068463}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3299,7 +3815,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1082" name="Text Box 58"/>
+          <xdr:cNvPr id="95" name="Text Box 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF9DD30-E252-40A4-821B-0D3930A80C10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3360,7 +3882,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1081" name="Text Box 57"/>
+          <xdr:cNvPr id="96" name="Text Box 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E389BAD5-26DC-456E-A8B2-FA18FF5B95A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3419,7 +3947,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1080" name="Text Box 56"/>
+          <xdr:cNvPr id="97" name="Text Box 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092B69E5-9F28-4E78-866D-D794EC68F29C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3478,7 +4012,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1079" name="Line 55"/>
+          <xdr:cNvPr id="98" name="Line 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D51EED5-62B1-48A8-8706-3EADEF60034D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3511,7 +4051,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1078" name="AutoShape 54"/>
+          <xdr:cNvPr id="99" name="AutoShape 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404E760F-CD6C-462E-9898-38E60597871F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3636,7 +4182,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1077" name="Line 53"/>
+          <xdr:cNvPr id="100" name="Line 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA19409E-D7A4-4674-82C2-E8E7A17E6640}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3669,7 +4221,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1076" name="Line 52"/>
+          <xdr:cNvPr id="101" name="Line 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943EB6AC-9F32-4CFB-BAA7-A1F4B712A188}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3707,7 +4265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3749,7 +4307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3782,9 +4340,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3817,6 +4392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3992,11 +4584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI541"/>
+  <dimension ref="A1:AI575"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4004,53 +4596,59 @@
   <cols>
     <col min="1" max="18" width="3.625" style="4"/>
     <col min="19" max="19" width="3.625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="3.625" style="4"/>
+    <col min="20" max="39" width="3.625" style="4"/>
+    <col min="40" max="42" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.75" style="4" customWidth="1"/>
+    <col min="46" max="46" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="3.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="44"/>
+      <c r="R1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="39"/>
       <c r="Y1" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="38"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -4059,43 +4657,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="8" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="53"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="48"/>
       <c r="Y2" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -4104,39 +4702,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="51"/>
       <c r="Y3" s="12" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="38"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="33"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4154,903 +4752,771 @@
         <v>7.9.</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="15" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="15" t="str">
         <f>$C$7&amp;"1."</f>
         <v>7.9.1.</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="str">
-        <f>$D$9&amp;"1."</f>
-        <v>7.9.1.1.</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="str">
+        <f>$D$11&amp;"1."</f>
+        <v>7.9.1.1.</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="15"/>
-      <c r="F14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="21"/>
+      <c r="D14" s="15"/>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="15"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="24"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="15"/>
-      <c r="F16" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="21"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="15"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="21"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="15"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="15"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="15"/>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="15"/>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="15"/>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="15" t="str">
+        <f>$D$11&amp;"2."</f>
+        <v>7.9.1.2.</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="15"/>
       <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="18"/>
-    </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="33"/>
-    </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="35"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="33"/>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="35"/>
-    </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="15"/>
+      <c r="F22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="15"/>
+      <c r="F23" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="15"/>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="15"/>
+      <c r="F25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="str">
-        <f>$D$9&amp;"2."</f>
-        <v>7.9.1.2.</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="15" t="str">
+    </row>
+    <row r="28" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.9.2.</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="15"/>
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="15"/>
+      <c r="E30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="15"/>
+      <c r="E32" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="15"/>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="15"/>
+      <c r="E35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="15"/>
+      <c r="E36" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="15"/>
+      <c r="E38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="26"/>
+    </row>
+    <row r="39" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="15"/>
+      <c r="E39" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="23"/>
+    </row>
+    <row r="40" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="15"/>
+      <c r="E40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="23"/>
+    </row>
+    <row r="41" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="15"/>
+      <c r="E42" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="15"/>
+      <c r="E43" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="15"/>
+      <c r="E45" s="17" t="str">
+        <f>$D$28&amp;"1."</f>
+        <v>7.9.2.1.</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="15"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="15"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="15"/>
-      <c r="E32" s="27" t="str">
-        <f>$D$31&amp;"1."</f>
-        <v>7.9.2.1.</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="15"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="15"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="15"/>
-      <c r="E35" s="27" t="str">
-        <f>$D$31&amp;"2."</f>
-        <v>7.9.2.2.</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="15"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="15"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="15"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="15"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="15"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="15"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="15"/>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="15"/>
-      <c r="E43" s="27"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="15"/>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="15"/>
-      <c r="E45" s="27"/>
-    </row>
-    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="15"/>
-      <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="15"/>
-      <c r="E47" s="27"/>
-    </row>
-    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="15"/>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="17"/>
+      <c r="F48" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="15"/>
-      <c r="E49" s="27"/>
-    </row>
-    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="17"/>
+      <c r="F49" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="15"/>
-      <c r="E50" s="27"/>
-    </row>
-    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="17"/>
+      <c r="F50" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="15"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="15"/>
-      <c r="E52" s="27"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="15"/>
-      <c r="E53" s="27"/>
+      <c r="E53" s="17"/>
+      <c r="F53"/>
     </row>
     <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="15"/>
-      <c r="E54" s="27"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="15"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="15"/>
-      <c r="E56" s="27"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="15"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="15"/>
-      <c r="E58" s="27"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="15"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="15"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="15"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="E63" s="17"/>
     </row>
     <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="15"/>
-      <c r="E64" s="27"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="15"/>
-      <c r="E65" s="27"/>
+      <c r="E65" s="17"/>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="15"/>
-      <c r="E66" s="27"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="15"/>
-      <c r="E67" s="27"/>
+      <c r="E67" s="17"/>
     </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15"/>
-      <c r="E68" s="27"/>
+      <c r="E68" s="17"/>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="15"/>
-      <c r="E69" s="27"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D70" s="15"/>
-      <c r="E70" s="27"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="15"/>
-      <c r="E71" s="27"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D72" s="15"/>
-      <c r="E72" s="27"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="15"/>
-      <c r="E73" s="27"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D74" s="15"/>
-      <c r="E74" s="27"/>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="15"/>
-      <c r="E75" s="27"/>
+      <c r="E75" s="17"/>
     </row>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D76" s="15"/>
-      <c r="E76" s="27"/>
-      <c r="F76"/>
+      <c r="E76" s="17"/>
     </row>
     <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D77" s="15"/>
-      <c r="E77" s="27"/>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="15"/>
-      <c r="E78" s="27"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D79" s="15"/>
-      <c r="E79" s="27"/>
+      <c r="E79" s="17"/>
     </row>
     <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="15"/>
-      <c r="E80" s="27"/>
+      <c r="E80" s="17"/>
     </row>
     <row r="81" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D81" s="15"/>
-      <c r="E81" s="27"/>
+      <c r="E81" s="17"/>
     </row>
     <row r="82" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D82" s="15"/>
-      <c r="E82" s="27"/>
+      <c r="E82" s="17"/>
     </row>
     <row r="83" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D83" s="15"/>
-      <c r="E83" s="27"/>
+      <c r="E83" s="17"/>
     </row>
     <row r="84" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D84" s="15"/>
-      <c r="E84" s="27"/>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="15"/>
-      <c r="E85" s="27"/>
+      <c r="E85" s="17"/>
     </row>
     <row r="86" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="15"/>
-      <c r="E86" s="27" t="str">
-        <f>$D$31&amp;"3."</f>
-        <v>7.9.2.3.</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E86" s="17"/>
+      <c r="F86"/>
     </row>
     <row r="87" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="15"/>
-      <c r="F87" s="31" t="s">
-        <v>46</v>
-      </c>
+      <c r="E87" s="17"/>
     </row>
     <row r="88" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="15"/>
-      <c r="F88" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="17"/>
     </row>
     <row r="89" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="17"/>
     </row>
     <row r="90" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="17"/>
     </row>
     <row r="91" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="27" t="str">
+      <c r="D91" s="15"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="15"/>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="15"/>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="15"/>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D95" s="15"/>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="15"/>
+      <c r="E96" s="15" t="str">
+        <f>$D$28&amp;"2."</f>
+        <v>7.9.2.2.</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="G101" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="G102" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="G105" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="G107" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="G108" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="G109" s="27"/>
+    </row>
+    <row r="110" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="G110" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="G111" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+    </row>
+    <row r="113" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+    </row>
+    <row r="114" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D114" s="15"/>
+      <c r="E114" s="15" t="str">
+        <f>$D$28&amp;"3."</f>
+        <v>7.9.2.3.</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+    </row>
+    <row r="119" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+    </row>
+    <row r="120" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D120" s="30" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.9.3.</v>
       </c>
-      <c r="E91" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D92" s="28"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D93" s="15"/>
-      <c r="E93" s="27"/>
-    </row>
-    <row r="94" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D94" s="15"/>
-    </row>
-    <row r="95" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D95" s="15"/>
-    </row>
-    <row r="96" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D96" s="15"/>
-    </row>
-    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D97" s="15"/>
-    </row>
-    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E101" s="15"/>
-    </row>
-    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D102" s="27"/>
-      <c r="E102" s="26"/>
-    </row>
-    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D103" s="28"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="29"/>
-    </row>
-    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D104" s="28"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="29"/>
-    </row>
-    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D105" s="28"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="29"/>
-    </row>
-    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="28"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="29"/>
-    </row>
-    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E107" s="15"/>
-    </row>
-    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E108" s="15"/>
-    </row>
-    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E109" s="15"/>
-    </row>
-    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E120" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="28"/>
+      <c r="E121" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D122" s="28"/>
+      <c r="E122" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D123" s="28"/>
+      <c r="E123" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+    </row>
+    <row r="125" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D125" s="28"/>
+      <c r="E125" s="15" t="str">
+        <f>$D$120&amp;"1."</f>
+        <v>7.9.3.1.</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D126" s="28"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D127" s="28"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" s="29" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D128" s="28"/>
+      <c r="E128" s="15"/>
+    </row>
+    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D129" s="15"/>
+    </row>
+    <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D130" s="15"/>
+    </row>
+    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D131" s="15"/>
+    </row>
+    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E132" s="15"/>
+    </row>
+    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="15"/>
+    </row>
+    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E134" s="15"/>
+    </row>
+    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E135" s="15"/>
+    </row>
+    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D136" s="17"/>
+      <c r="E136" s="16"/>
+    </row>
+    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="18"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="19"/>
+    </row>
+    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D138" s="18"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="19"/>
+    </row>
+    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D139" s="18"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="19"/>
+    </row>
+    <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D140" s="18"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="19"/>
+    </row>
+    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E141" s="15"/>
+    </row>
+    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E142" s="15"/>
+    </row>
+    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E143" s="15"/>
+    </row>
+    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5448,6 +5914,40 @@
     <row r="539" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="540" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="541" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -5465,9 +5965,10 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="30" max="34" man="1"/>
-    <brk id="58" max="34" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="44" max="34" man="1"/>
+    <brk id="68" max="34" man="1"/>
+    <brk id="94" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
